--- a/data/GEP00007/GEP00007_ARID1A.xlsx
+++ b/data/GEP00007/GEP00007_ARID1A.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\smith04\Desktop\NGS Submission\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="28705"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8200" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Project" sheetId="1" r:id="rId1"/>
@@ -21,8 +16,11 @@
     <sheet name="Plate" sheetId="7" r:id="rId7"/>
     <sheet name="SequencingLibrary" sheetId="8" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="140001" iterateDelta="1E-4" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
     </ext>
@@ -957,8 +955,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -989,6 +987,22 @@
       <name val="Arial Unicode MS"/>
       <family val="2"/>
     </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="11"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1007,10 +1021,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1025,8 +1041,11 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1085,7 +1104,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -1120,7 +1139,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1297,7 +1316,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1305,24 +1324,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
-    <sheetView zoomScale="68" zoomScaleNormal="68" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" zoomScale="68" zoomScaleNormal="68" zoomScalePageLayoutView="68" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="11.5703125"/>
-    <col min="2" max="2" width="12.7109375" customWidth="1"/>
-    <col min="3" max="5" width="11.5703125"/>
-    <col min="6" max="7" width="15.28515625" customWidth="1"/>
-    <col min="8" max="8" width="11.140625" customWidth="1"/>
-    <col min="9" max="9" width="33.85546875" customWidth="1"/>
-    <col min="10" max="1025" width="11.5703125"/>
+    <col min="2" max="2" width="12.6640625" customWidth="1"/>
+    <col min="6" max="7" width="15.33203125" customWidth="1"/>
+    <col min="8" max="8" width="11.1640625" customWidth="1"/>
+    <col min="9" max="9" width="33.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1351,7 +1367,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9">
       <c r="A2" t="s">
         <v>170</v>
       </c>
@@ -1370,8 +1386,8 @@
       <c r="F2" t="s">
         <v>57</v>
       </c>
-      <c r="G2" s="1">
-        <v>42950</v>
+      <c r="G2" s="8">
+        <v>20170803</v>
       </c>
       <c r="H2" t="s">
         <v>58</v>
@@ -1379,6 +1395,9 @@
       <c r="I2" t="s">
         <v>171</v>
       </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="G3" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0249999999999999" bottom="1.0249999999999999" header="0.78749999999999998" footer="0.78749999999999998"/>
@@ -1387,6 +1406,11 @@
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
   </headerFooter>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -1394,20 +1418,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J3"/>
   <sheetViews>
-    <sheetView zoomScale="68" zoomScaleNormal="68" workbookViewId="0">
+    <sheetView zoomScale="68" zoomScaleNormal="68" zoomScalePageLayoutView="68" workbookViewId="0">
       <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="4" width="11.5703125"/>
-    <col min="5" max="5" width="14.5703125" customWidth="1"/>
-    <col min="6" max="6" width="11.5703125"/>
-    <col min="7" max="7" width="10.28515625" customWidth="1"/>
-    <col min="8" max="1025" width="11.5703125"/>
+    <col min="5" max="5" width="14.5" customWidth="1"/>
+    <col min="7" max="7" width="10.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10">
       <c r="A1" t="s">
         <v>9</v>
       </c>
@@ -1439,7 +1460,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10">
       <c r="A2" t="s">
         <v>170</v>
       </c>
@@ -1471,16 +1492,21 @@
         <v>173</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10">
       <c r="G3" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0249999999999999" bottom="1.0249999999999999" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
   </headerFooter>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -1488,20 +1514,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView zoomScale="68" zoomScaleNormal="68" workbookViewId="0">
+    <sheetView zoomScale="68" zoomScaleNormal="68" zoomScalePageLayoutView="68" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="2" width="11.42578125" customWidth="1"/>
-    <col min="3" max="3" width="26.5703125" customWidth="1"/>
-    <col min="4" max="4" width="13.85546875" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" customWidth="1"/>
-    <col min="6" max="1025" width="11.5703125"/>
+    <col min="1" max="2" width="11.5" customWidth="1"/>
+    <col min="3" max="3" width="26.5" customWidth="1"/>
+    <col min="4" max="4" width="13.83203125" customWidth="1"/>
+    <col min="5" max="5" width="14.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>17</v>
       </c>
@@ -1524,7 +1549,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="14">
       <c r="A2" t="s">
         <v>176</v>
       </c>
@@ -1547,7 +1572,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="14">
       <c r="A3" t="s">
         <v>176</v>
       </c>
@@ -1577,6 +1602,11 @@
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
   </headerFooter>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -1584,20 +1614,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D1"/>
   <sheetViews>
-    <sheetView zoomScale="68" zoomScaleNormal="68" workbookViewId="0">
+    <sheetView zoomScale="68" zoomScaleNormal="68" zoomScalePageLayoutView="68" workbookViewId="0">
       <selection activeCell="E65" sqref="E65"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="11.5703125"/>
     <col min="2" max="2" width="24" customWidth="1"/>
-    <col min="3" max="3" width="20.28515625" customWidth="1"/>
-    <col min="4" max="4" width="18.28515625" customWidth="1"/>
-    <col min="5" max="1025" width="11.5703125"/>
+    <col min="3" max="3" width="20.33203125" customWidth="1"/>
+    <col min="4" max="4" width="18.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>23</v>
       </c>
@@ -1618,6 +1646,11 @@
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
   </headerFooter>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -1625,30 +1658,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q6"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="14.140625" customWidth="1"/>
-    <col min="2" max="2" width="14.85546875" customWidth="1"/>
-    <col min="3" max="3" width="13.140625" customWidth="1"/>
-    <col min="4" max="4" width="14.140625" customWidth="1"/>
-    <col min="5" max="5" width="5.85546875" customWidth="1"/>
-    <col min="6" max="7" width="11.5703125"/>
-    <col min="8" max="8" width="11.85546875" customWidth="1"/>
-    <col min="9" max="9" width="10.85546875" customWidth="1"/>
-    <col min="10" max="10" width="15.42578125" customWidth="1"/>
-    <col min="11" max="14" width="14.140625" customWidth="1"/>
-    <col min="15" max="16" width="14.85546875" customWidth="1"/>
-    <col min="17" max="18" width="31.7109375" customWidth="1"/>
-    <col min="19" max="21" width="14.85546875" customWidth="1"/>
-    <col min="22" max="22" width="10.28515625" customWidth="1"/>
-    <col min="23" max="1025" width="11.5703125"/>
+    <col min="1" max="1" width="14.1640625" customWidth="1"/>
+    <col min="2" max="2" width="14.83203125" customWidth="1"/>
+    <col min="3" max="3" width="13.1640625" customWidth="1"/>
+    <col min="4" max="4" width="14.1640625" customWidth="1"/>
+    <col min="5" max="5" width="5.83203125" customWidth="1"/>
+    <col min="8" max="8" width="11.83203125" customWidth="1"/>
+    <col min="9" max="9" width="10.83203125" customWidth="1"/>
+    <col min="10" max="10" width="15.5" customWidth="1"/>
+    <col min="11" max="14" width="14.1640625" customWidth="1"/>
+    <col min="15" max="16" width="14.83203125" customWidth="1"/>
+    <col min="17" max="18" width="31.6640625" customWidth="1"/>
+    <col min="19" max="21" width="14.83203125" customWidth="1"/>
+    <col min="22" max="22" width="10.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17">
       <c r="A1" t="s">
         <v>23</v>
       </c>
@@ -1701,7 +1732,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="13.5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:17" ht="13">
       <c r="A2" t="s">
         <v>174</v>
       </c>
@@ -1752,7 +1783,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="13.5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:17" ht="13">
       <c r="A3" t="s">
         <v>175</v>
       </c>
@@ -1803,7 +1834,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17">
       <c r="K6" s="2"/>
     </row>
   </sheetData>
@@ -1813,6 +1844,11 @@
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
   </headerFooter>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -1820,24 +1856,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J121"/>
   <sheetViews>
-    <sheetView zoomScale="68" zoomScaleNormal="68" workbookViewId="0">
+    <sheetView zoomScale="68" zoomScaleNormal="68" zoomScalePageLayoutView="68" workbookViewId="0">
       <selection activeCell="C74" sqref="C74:C81"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="2" width="20.85546875" customWidth="1"/>
-    <col min="3" max="3" width="11.5703125"/>
-    <col min="4" max="4" width="13.5703125" customWidth="1"/>
-    <col min="5" max="6" width="11.5703125"/>
-    <col min="7" max="7" width="21.28515625" customWidth="1"/>
+    <col min="1" max="2" width="20.83203125" customWidth="1"/>
+    <col min="4" max="4" width="13.5" customWidth="1"/>
+    <col min="7" max="7" width="21.33203125" customWidth="1"/>
     <col min="8" max="8" width="14" customWidth="1"/>
-    <col min="9" max="9" width="9.140625" customWidth="1"/>
-    <col min="10" max="10" width="18.42578125" customWidth="1"/>
-    <col min="11" max="1025" width="11.5703125"/>
+    <col min="9" max="9" width="9.1640625" customWidth="1"/>
+    <col min="10" max="10" width="18.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10">
       <c r="A1" t="s">
         <v>9</v>
       </c>
@@ -1869,7 +1902,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10">
       <c r="A2" t="s">
         <v>170</v>
       </c>
@@ -1889,7 +1922,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10">
       <c r="A3" t="s">
         <v>170</v>
       </c>
@@ -1921,7 +1954,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10">
       <c r="A4" t="s">
         <v>170</v>
       </c>
@@ -1953,7 +1986,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10">
       <c r="A5" t="s">
         <v>170</v>
       </c>
@@ -1985,7 +2018,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10">
       <c r="A6" t="s">
         <v>170</v>
       </c>
@@ -2017,7 +2050,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10">
       <c r="A7" t="s">
         <v>170</v>
       </c>
@@ -2049,7 +2082,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10">
       <c r="A8" t="s">
         <v>170</v>
       </c>
@@ -2081,7 +2114,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10">
       <c r="A9" t="s">
         <v>170</v>
       </c>
@@ -2113,7 +2146,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10">
       <c r="A10" t="s">
         <v>170</v>
       </c>
@@ -2145,7 +2178,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10">
       <c r="A11" t="s">
         <v>170</v>
       </c>
@@ -2177,7 +2210,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10">
       <c r="A12" t="s">
         <v>170</v>
       </c>
@@ -2209,7 +2242,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10">
       <c r="A13" t="s">
         <v>170</v>
       </c>
@@ -2241,7 +2274,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10">
       <c r="A14" t="s">
         <v>170</v>
       </c>
@@ -2273,7 +2306,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10">
       <c r="A15" t="s">
         <v>170</v>
       </c>
@@ -2305,7 +2338,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10">
       <c r="A16" t="s">
         <v>170</v>
       </c>
@@ -2337,7 +2370,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:10">
       <c r="A17" t="s">
         <v>170</v>
       </c>
@@ -2369,7 +2402,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:10">
       <c r="A18" t="s">
         <v>170</v>
       </c>
@@ -2401,7 +2434,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:10">
       <c r="A19" t="s">
         <v>170</v>
       </c>
@@ -2433,7 +2466,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:10">
       <c r="A20" t="s">
         <v>170</v>
       </c>
@@ -2465,7 +2498,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:10">
       <c r="A21" t="s">
         <v>170</v>
       </c>
@@ -2497,7 +2530,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:10">
       <c r="A22" t="s">
         <v>170</v>
       </c>
@@ -2529,7 +2562,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:10">
       <c r="A23" t="s">
         <v>170</v>
       </c>
@@ -2561,7 +2594,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:10">
       <c r="A24" t="s">
         <v>170</v>
       </c>
@@ -2593,7 +2626,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:10">
       <c r="A25" t="s">
         <v>170</v>
       </c>
@@ -2625,7 +2658,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:10">
       <c r="A26" t="s">
         <v>170</v>
       </c>
@@ -2657,7 +2690,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:10">
       <c r="A27" t="s">
         <v>170</v>
       </c>
@@ -2689,7 +2722,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:10">
       <c r="A28" t="s">
         <v>170</v>
       </c>
@@ -2721,7 +2754,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:10">
       <c r="A29" t="s">
         <v>170</v>
       </c>
@@ -2753,7 +2786,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:10">
       <c r="A30" t="s">
         <v>170</v>
       </c>
@@ -2785,7 +2818,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:10">
       <c r="A31" t="s">
         <v>170</v>
       </c>
@@ -2817,7 +2850,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:10">
       <c r="A32" t="s">
         <v>170</v>
       </c>
@@ -2849,7 +2882,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:10">
       <c r="A33" t="s">
         <v>170</v>
       </c>
@@ -2881,7 +2914,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:10">
       <c r="A34" t="s">
         <v>170</v>
       </c>
@@ -2913,7 +2946,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:10">
       <c r="A35" t="s">
         <v>170</v>
       </c>
@@ -2945,7 +2978,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:10">
       <c r="A36" t="s">
         <v>170</v>
       </c>
@@ -2977,7 +3010,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:10">
       <c r="A37" t="s">
         <v>170</v>
       </c>
@@ -3009,7 +3042,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:10">
       <c r="A38" t="s">
         <v>170</v>
       </c>
@@ -3041,7 +3074,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:10">
       <c r="A39" t="s">
         <v>170</v>
       </c>
@@ -3073,7 +3106,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:10">
       <c r="A40" t="s">
         <v>170</v>
       </c>
@@ -3105,7 +3138,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:10">
       <c r="A41" t="s">
         <v>170</v>
       </c>
@@ -3137,7 +3170,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:10">
       <c r="A42" t="s">
         <v>170</v>
       </c>
@@ -3169,7 +3202,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:10">
       <c r="A43" t="s">
         <v>170</v>
       </c>
@@ -3201,7 +3234,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:10">
       <c r="A44" t="s">
         <v>170</v>
       </c>
@@ -3233,7 +3266,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:10">
       <c r="A45" t="s">
         <v>170</v>
       </c>
@@ -3265,7 +3298,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:10">
       <c r="A46" t="s">
         <v>170</v>
       </c>
@@ -3297,7 +3330,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:10">
       <c r="A47" t="s">
         <v>170</v>
       </c>
@@ -3329,7 +3362,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:10">
       <c r="A48" t="s">
         <v>170</v>
       </c>
@@ -3361,7 +3394,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:10">
       <c r="A49" t="s">
         <v>170</v>
       </c>
@@ -3393,7 +3426,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:10">
       <c r="A50" t="s">
         <v>170</v>
       </c>
@@ -3425,7 +3458,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:10">
       <c r="A51" t="s">
         <v>170</v>
       </c>
@@ -3457,7 +3490,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:10">
       <c r="A52" t="s">
         <v>170</v>
       </c>
@@ -3489,7 +3522,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:10">
       <c r="A53" t="s">
         <v>170</v>
       </c>
@@ -3521,7 +3554,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:10">
       <c r="A54" t="s">
         <v>170</v>
       </c>
@@ -3553,7 +3586,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:10">
       <c r="A55" t="s">
         <v>170</v>
       </c>
@@ -3585,7 +3618,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:10">
       <c r="A56" t="s">
         <v>170</v>
       </c>
@@ -3617,7 +3650,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:10">
       <c r="A57" t="s">
         <v>170</v>
       </c>
@@ -3649,7 +3682,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:10">
       <c r="A58" t="s">
         <v>170</v>
       </c>
@@ -3681,7 +3714,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:10">
       <c r="A59" t="s">
         <v>170</v>
       </c>
@@ -3713,7 +3746,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:10">
       <c r="A60" t="s">
         <v>170</v>
       </c>
@@ -3745,7 +3778,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:10">
       <c r="A61" t="s">
         <v>170</v>
       </c>
@@ -3777,7 +3810,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:10">
       <c r="A62" t="s">
         <v>170</v>
       </c>
@@ -3809,7 +3842,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:10">
       <c r="A63" t="s">
         <v>170</v>
       </c>
@@ -3841,7 +3874,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:10">
       <c r="A64" t="s">
         <v>170</v>
       </c>
@@ -3873,7 +3906,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:10">
       <c r="A65" t="s">
         <v>170</v>
       </c>
@@ -3905,7 +3938,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:10">
       <c r="A66" t="s">
         <v>170</v>
       </c>
@@ -3937,7 +3970,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:10">
       <c r="A67" t="s">
         <v>170</v>
       </c>
@@ -3969,7 +4002,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:10">
       <c r="A68" t="s">
         <v>170</v>
       </c>
@@ -4001,7 +4034,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:10">
       <c r="A69" t="s">
         <v>170</v>
       </c>
@@ -4033,7 +4066,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:10">
       <c r="A70" t="s">
         <v>170</v>
       </c>
@@ -4065,7 +4098,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:10">
       <c r="A71" t="s">
         <v>170</v>
       </c>
@@ -4097,7 +4130,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:10">
       <c r="A72" t="s">
         <v>170</v>
       </c>
@@ -4129,7 +4162,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:10">
       <c r="A73" t="s">
         <v>170</v>
       </c>
@@ -4161,7 +4194,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:10">
       <c r="A74" t="s">
         <v>170</v>
       </c>
@@ -4193,7 +4226,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:10">
       <c r="A75" t="s">
         <v>170</v>
       </c>
@@ -4225,7 +4258,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:10">
       <c r="A76" t="s">
         <v>170</v>
       </c>
@@ -4257,7 +4290,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:10">
       <c r="A77" t="s">
         <v>170</v>
       </c>
@@ -4289,7 +4322,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:10">
       <c r="A78" t="s">
         <v>170</v>
       </c>
@@ -4321,7 +4354,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:10">
       <c r="A79" t="s">
         <v>170</v>
       </c>
@@ -4353,7 +4386,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:10">
       <c r="A80" t="s">
         <v>170</v>
       </c>
@@ -4385,7 +4418,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:10">
       <c r="A81" t="s">
         <v>170</v>
       </c>
@@ -4417,7 +4450,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:10">
       <c r="A82" t="s">
         <v>170</v>
       </c>
@@ -4437,7 +4470,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:10">
       <c r="A83" t="s">
         <v>170</v>
       </c>
@@ -4457,7 +4490,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:10">
       <c r="A84" t="s">
         <v>170</v>
       </c>
@@ -4477,7 +4510,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:10">
       <c r="A85" t="s">
         <v>170</v>
       </c>
@@ -4497,7 +4530,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:10">
       <c r="A86" t="s">
         <v>170</v>
       </c>
@@ -4517,7 +4550,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:10">
       <c r="A87" t="s">
         <v>170</v>
       </c>
@@ -4537,7 +4570,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:10">
       <c r="A88" t="s">
         <v>170</v>
       </c>
@@ -4557,7 +4590,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:10">
       <c r="A89" t="s">
         <v>170</v>
       </c>
@@ -4577,7 +4610,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:10">
       <c r="A90" t="s">
         <v>170</v>
       </c>
@@ -4609,7 +4642,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:10">
       <c r="A91" t="s">
         <v>170</v>
       </c>
@@ -4641,7 +4674,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:10">
       <c r="A92" t="s">
         <v>170</v>
       </c>
@@ -4673,7 +4706,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:10">
       <c r="A93" t="s">
         <v>170</v>
       </c>
@@ -4705,7 +4738,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:10">
       <c r="A94" t="s">
         <v>170</v>
       </c>
@@ -4737,7 +4770,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:10">
       <c r="A95" t="s">
         <v>170</v>
       </c>
@@ -4769,7 +4802,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:10">
       <c r="A96" t="s">
         <v>170</v>
       </c>
@@ -4801,7 +4834,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:10">
       <c r="A97" t="s">
         <v>170</v>
       </c>
@@ -4821,7 +4854,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:10">
       <c r="A98" t="s">
         <v>170</v>
       </c>
@@ -4841,7 +4874,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:10">
       <c r="A99" t="s">
         <v>170</v>
       </c>
@@ -4873,7 +4906,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:10">
       <c r="A100" t="s">
         <v>170</v>
       </c>
@@ -4905,7 +4938,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:10">
       <c r="A101" t="s">
         <v>170</v>
       </c>
@@ -4937,7 +4970,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:10">
       <c r="A102" t="s">
         <v>170</v>
       </c>
@@ -4969,7 +5002,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:10">
       <c r="A103" t="s">
         <v>170</v>
       </c>
@@ -5001,7 +5034,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:10">
       <c r="A104" t="s">
         <v>170</v>
       </c>
@@ -5033,7 +5066,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:10">
       <c r="A105" t="s">
         <v>170</v>
       </c>
@@ -5065,7 +5098,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:10">
       <c r="A106" t="s">
         <v>170</v>
       </c>
@@ -5097,7 +5130,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:10">
       <c r="A107" t="s">
         <v>170</v>
       </c>
@@ -5129,7 +5162,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:10">
       <c r="A108" t="s">
         <v>170</v>
       </c>
@@ -5161,7 +5194,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:10">
       <c r="A109" t="s">
         <v>170</v>
       </c>
@@ -5193,7 +5226,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:10">
       <c r="A110" t="s">
         <v>170</v>
       </c>
@@ -5225,7 +5258,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:10">
       <c r="A111" t="s">
         <v>170</v>
       </c>
@@ -5257,7 +5290,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:10">
       <c r="A112" t="s">
         <v>170</v>
       </c>
@@ -5289,7 +5322,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:10">
       <c r="A113" t="s">
         <v>170</v>
       </c>
@@ -5321,7 +5354,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:10">
       <c r="A114" t="s">
         <v>170</v>
       </c>
@@ -5353,7 +5386,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:10">
       <c r="A115" t="s">
         <v>170</v>
       </c>
@@ -5385,7 +5418,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:10">
       <c r="A116" t="s">
         <v>170</v>
       </c>
@@ -5417,7 +5450,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:10">
       <c r="A117" t="s">
         <v>170</v>
       </c>
@@ -5449,7 +5482,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:10">
       <c r="A118" t="s">
         <v>170</v>
       </c>
@@ -5481,7 +5514,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:10">
       <c r="A119" t="s">
         <v>170</v>
       </c>
@@ -5513,7 +5546,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="120" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:10">
       <c r="A120" t="s">
         <v>170</v>
       </c>
@@ -5545,7 +5578,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="121" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:10">
       <c r="A121" t="s">
         <v>170</v>
       </c>
@@ -5584,6 +5617,11 @@
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
   </headerFooter>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -5591,19 +5629,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView zoomScale="68" zoomScaleNormal="68" workbookViewId="0">
+    <sheetView zoomScale="68" zoomScaleNormal="68" zoomScalePageLayoutView="68" workbookViewId="0">
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="14.7109375" customWidth="1"/>
-    <col min="2" max="2" width="24.85546875" customWidth="1"/>
-    <col min="3" max="3" width="73.140625" customWidth="1"/>
-    <col min="4" max="1025" width="11.5703125"/>
+    <col min="1" max="1" width="14.6640625" customWidth="1"/>
+    <col min="2" max="2" width="24.83203125" customWidth="1"/>
+    <col min="3" max="3" width="73.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>48</v>
       </c>
@@ -5617,7 +5654,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>182</v>
       </c>
@@ -5628,7 +5665,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>183</v>
       </c>
@@ -5646,6 +5683,11 @@
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
   </headerFooter>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -5653,21 +5695,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G121"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="68" zoomScaleNormal="68" workbookViewId="0">
+    <sheetView zoomScale="68" zoomScaleNormal="68" zoomScalePageLayoutView="68" workbookViewId="0">
       <selection activeCell="I50" sqref="I50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="23.7109375" customWidth="1"/>
-    <col min="2" max="2" width="11.5703125"/>
-    <col min="3" max="5" width="13.5703125" customWidth="1"/>
-    <col min="6" max="6" width="19.42578125" customWidth="1"/>
-    <col min="7" max="7" width="31.85546875" customWidth="1"/>
-    <col min="8" max="1025" width="11.5703125"/>
+    <col min="1" max="1" width="23.6640625" customWidth="1"/>
+    <col min="3" max="5" width="13.5" customWidth="1"/>
+    <col min="6" max="6" width="19.5" customWidth="1"/>
+    <col min="7" max="7" width="31.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>48</v>
       </c>
@@ -5690,7 +5730,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
         <v>182</v>
       </c>
@@ -5714,7 +5754,7 @@
         <v>GEP00007_01A1</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
         <v>182</v>
       </c>
@@ -5738,7 +5778,7 @@
         <v>GEP00007_01B1</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7">
       <c r="A4" t="s">
         <v>182</v>
       </c>
@@ -5762,7 +5802,7 @@
         <v>GEP00007_01C1</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7">
       <c r="A5" t="s">
         <v>182</v>
       </c>
@@ -5786,7 +5826,7 @@
         <v>GEP00007_01D1</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7">
       <c r="A6" t="s">
         <v>182</v>
       </c>
@@ -5810,7 +5850,7 @@
         <v>GEP00007_01E1</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7">
       <c r="A7" t="s">
         <v>182</v>
       </c>
@@ -5834,7 +5874,7 @@
         <v>GEP00007_01F1</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7">
       <c r="A8" t="s">
         <v>182</v>
       </c>
@@ -5858,7 +5898,7 @@
         <v>GEP00007_01G1</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7">
       <c r="A9" t="s">
         <v>182</v>
       </c>
@@ -5882,7 +5922,7 @@
         <v>GEP00007_01H1</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7">
       <c r="A10" t="s">
         <v>182</v>
       </c>
@@ -5906,7 +5946,7 @@
         <v>GEP00007_01A2</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7">
       <c r="A11" t="s">
         <v>182</v>
       </c>
@@ -5930,7 +5970,7 @@
         <v>GEP00007_01B2</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7">
       <c r="A12" t="s">
         <v>182</v>
       </c>
@@ -5954,7 +5994,7 @@
         <v>GEP00007_01C2</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7">
       <c r="A13" t="s">
         <v>182</v>
       </c>
@@ -5978,7 +6018,7 @@
         <v>GEP00007_01D2</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7">
       <c r="A14" t="s">
         <v>182</v>
       </c>
@@ -6002,7 +6042,7 @@
         <v>GEP00007_01E2</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7">
       <c r="A15" t="s">
         <v>182</v>
       </c>
@@ -6026,7 +6066,7 @@
         <v>GEP00007_01F2</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7">
       <c r="A16" t="s">
         <v>182</v>
       </c>
@@ -6050,7 +6090,7 @@
         <v>GEP00007_01G2</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7">
       <c r="A17" t="s">
         <v>182</v>
       </c>
@@ -6074,7 +6114,7 @@
         <v>GEP00007_01H2</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7">
       <c r="A18" t="s">
         <v>182</v>
       </c>
@@ -6098,7 +6138,7 @@
         <v>GEP00007_01A3</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7">
       <c r="A19" t="s">
         <v>182</v>
       </c>
@@ -6122,7 +6162,7 @@
         <v>GEP00007_01B3</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7">
       <c r="A20" t="s">
         <v>182</v>
       </c>
@@ -6146,7 +6186,7 @@
         <v>GEP00007_01C3</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7">
       <c r="A21" t="s">
         <v>182</v>
       </c>
@@ -6170,7 +6210,7 @@
         <v>GEP00007_01D3</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7">
       <c r="A22" t="s">
         <v>182</v>
       </c>
@@ -6194,7 +6234,7 @@
         <v>GEP00007_01E3</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7">
       <c r="A23" t="s">
         <v>182</v>
       </c>
@@ -6218,7 +6258,7 @@
         <v>GEP00007_01F3</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7">
       <c r="A24" t="s">
         <v>182</v>
       </c>
@@ -6242,7 +6282,7 @@
         <v>GEP00007_01G3</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7">
       <c r="A25" t="s">
         <v>182</v>
       </c>
@@ -6266,7 +6306,7 @@
         <v>GEP00007_01H3</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7">
       <c r="A26" t="s">
         <v>182</v>
       </c>
@@ -6290,7 +6330,7 @@
         <v>GEP00007_01A4</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:7">
       <c r="A27" t="s">
         <v>182</v>
       </c>
@@ -6314,7 +6354,7 @@
         <v>GEP00007_01B4</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:7">
       <c r="A28" t="s">
         <v>182</v>
       </c>
@@ -6338,7 +6378,7 @@
         <v>GEP00007_01C4</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:7">
       <c r="A29" t="s">
         <v>182</v>
       </c>
@@ -6362,7 +6402,7 @@
         <v>GEP00007_01D4</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:7">
       <c r="A30" t="s">
         <v>182</v>
       </c>
@@ -6386,7 +6426,7 @@
         <v>GEP00007_01E4</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:7">
       <c r="A31" t="s">
         <v>182</v>
       </c>
@@ -6410,7 +6450,7 @@
         <v>GEP00007_01F4</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:7">
       <c r="A32" t="s">
         <v>182</v>
       </c>
@@ -6434,7 +6474,7 @@
         <v>GEP00007_01G4</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:7">
       <c r="A33" t="s">
         <v>182</v>
       </c>
@@ -6458,7 +6498,7 @@
         <v>GEP00007_01H4</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:7">
       <c r="A34" t="s">
         <v>182</v>
       </c>
@@ -6482,7 +6522,7 @@
         <v>GEP00007_01A5</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:7">
       <c r="A35" t="s">
         <v>182</v>
       </c>
@@ -6506,7 +6546,7 @@
         <v>GEP00007_01B5</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:7">
       <c r="A36" t="s">
         <v>182</v>
       </c>
@@ -6530,7 +6570,7 @@
         <v>GEP00007_01C5</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:7">
       <c r="A37" t="s">
         <v>182</v>
       </c>
@@ -6554,7 +6594,7 @@
         <v>GEP00007_01D5</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:7">
       <c r="A38" t="s">
         <v>182</v>
       </c>
@@ -6578,7 +6618,7 @@
         <v>GEP00007_01E5</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:7">
       <c r="A39" t="s">
         <v>182</v>
       </c>
@@ -6602,7 +6642,7 @@
         <v>GEP00007_01F5</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:7">
       <c r="A40" t="s">
         <v>182</v>
       </c>
@@ -6626,7 +6666,7 @@
         <v>GEP00007_01G5</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:7">
       <c r="A41" t="s">
         <v>182</v>
       </c>
@@ -6650,7 +6690,7 @@
         <v>GEP00007_01H5</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:7">
       <c r="A42" t="s">
         <v>182</v>
       </c>
@@ -6674,7 +6714,7 @@
         <v>GEP00007_01A6</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:7">
       <c r="A43" t="s">
         <v>182</v>
       </c>
@@ -6698,7 +6738,7 @@
         <v>GEP00007_01B6</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:7">
       <c r="A44" t="s">
         <v>182</v>
       </c>
@@ -6722,7 +6762,7 @@
         <v>GEP00007_01C6</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:7">
       <c r="A45" t="s">
         <v>182</v>
       </c>
@@ -6746,7 +6786,7 @@
         <v>GEP00007_01D6</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:7">
       <c r="A46" t="s">
         <v>182</v>
       </c>
@@ -6770,7 +6810,7 @@
         <v>GEP00007_01E6</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:7">
       <c r="A47" t="s">
         <v>182</v>
       </c>
@@ -6794,7 +6834,7 @@
         <v>GEP00007_01F6</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:7">
       <c r="A48" t="s">
         <v>182</v>
       </c>
@@ -6818,7 +6858,7 @@
         <v>GEP00007_01G6</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:7">
       <c r="A49" t="s">
         <v>182</v>
       </c>
@@ -6842,7 +6882,7 @@
         <v>GEP00007_01H6</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:7">
       <c r="A50" t="s">
         <v>182</v>
       </c>
@@ -6866,7 +6906,7 @@
         <v>GEP00007_01A7</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:7">
       <c r="A51" t="s">
         <v>182</v>
       </c>
@@ -6890,7 +6930,7 @@
         <v>GEP00007_01B7</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:7">
       <c r="A52" t="s">
         <v>182</v>
       </c>
@@ -6914,7 +6954,7 @@
         <v>GEP00007_01C7</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:7">
       <c r="A53" t="s">
         <v>182</v>
       </c>
@@ -6938,7 +6978,7 @@
         <v>GEP00007_01D7</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:7">
       <c r="A54" t="s">
         <v>182</v>
       </c>
@@ -6962,7 +7002,7 @@
         <v>GEP00007_01E7</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:7">
       <c r="A55" t="s">
         <v>182</v>
       </c>
@@ -6986,7 +7026,7 @@
         <v>GEP00007_01F7</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:7">
       <c r="A56" t="s">
         <v>182</v>
       </c>
@@ -7010,7 +7050,7 @@
         <v>GEP00007_01G7</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:7">
       <c r="A57" t="s">
         <v>182</v>
       </c>
@@ -7034,7 +7074,7 @@
         <v>GEP00007_01H7</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:7">
       <c r="A58" t="s">
         <v>182</v>
       </c>
@@ -7058,7 +7098,7 @@
         <v>GEP00007_01A8</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:7">
       <c r="A59" t="s">
         <v>182</v>
       </c>
@@ -7082,7 +7122,7 @@
         <v>GEP00007_01B8</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:7">
       <c r="A60" t="s">
         <v>182</v>
       </c>
@@ -7106,7 +7146,7 @@
         <v>GEP00007_01C8</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:7">
       <c r="A61" t="s">
         <v>182</v>
       </c>
@@ -7130,7 +7170,7 @@
         <v>GEP00007_01D8</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:7">
       <c r="A62" t="s">
         <v>182</v>
       </c>
@@ -7154,7 +7194,7 @@
         <v>GEP00007_01E8</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:7">
       <c r="A63" t="s">
         <v>182</v>
       </c>
@@ -7178,7 +7218,7 @@
         <v>GEP00007_01F8</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:7">
       <c r="A64" t="s">
         <v>182</v>
       </c>
@@ -7202,7 +7242,7 @@
         <v>GEP00007_01G8</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:7">
       <c r="A65" t="s">
         <v>182</v>
       </c>
@@ -7226,7 +7266,7 @@
         <v>GEP00007_01H8</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:7">
       <c r="A66" t="s">
         <v>182</v>
       </c>
@@ -7250,7 +7290,7 @@
         <v>GEP00007_01A9</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:7">
       <c r="A67" t="s">
         <v>182</v>
       </c>
@@ -7274,7 +7314,7 @@
         <v>GEP00007_01B9</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:7">
       <c r="A68" t="s">
         <v>182</v>
       </c>
@@ -7298,7 +7338,7 @@
         <v>GEP00007_01C9</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:7">
       <c r="A69" t="s">
         <v>182</v>
       </c>
@@ -7322,7 +7362,7 @@
         <v>GEP00007_01D9</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:7">
       <c r="A70" t="s">
         <v>182</v>
       </c>
@@ -7346,7 +7386,7 @@
         <v>GEP00007_01E9</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:7">
       <c r="A71" t="s">
         <v>182</v>
       </c>
@@ -7370,7 +7410,7 @@
         <v>GEP00007_01F9</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:7">
       <c r="A72" t="s">
         <v>182</v>
       </c>
@@ -7394,7 +7434,7 @@
         <v>GEP00007_01G9</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:7">
       <c r="A73" t="s">
         <v>182</v>
       </c>
@@ -7418,7 +7458,7 @@
         <v>GEP00007_01H9</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:7">
       <c r="A74" t="s">
         <v>182</v>
       </c>
@@ -7442,7 +7482,7 @@
         <v>GEP00007_01A10</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:7">
       <c r="A75" t="s">
         <v>182</v>
       </c>
@@ -7466,7 +7506,7 @@
         <v>GEP00007_01B10</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:7">
       <c r="A76" t="s">
         <v>182</v>
       </c>
@@ -7490,7 +7530,7 @@
         <v>GEP00007_01C10</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:7">
       <c r="A77" t="s">
         <v>182</v>
       </c>
@@ -7514,7 +7554,7 @@
         <v>GEP00007_01D10</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:7">
       <c r="A78" t="s">
         <v>182</v>
       </c>
@@ -7538,7 +7578,7 @@
         <v>GEP00007_01E10</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:7">
       <c r="A79" t="s">
         <v>182</v>
       </c>
@@ -7562,7 +7602,7 @@
         <v>GEP00007_01F10</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:7">
       <c r="A80" t="s">
         <v>182</v>
       </c>
@@ -7586,7 +7626,7 @@
         <v>GEP00007_01G10</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:7">
       <c r="A81" t="s">
         <v>182</v>
       </c>
@@ -7610,7 +7650,7 @@
         <v>GEP00007_01H10</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:7">
       <c r="A82" t="s">
         <v>182</v>
       </c>
@@ -7634,7 +7674,7 @@
         <v>GEP00007_01A11</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:7">
       <c r="A83" t="s">
         <v>182</v>
       </c>
@@ -7658,7 +7698,7 @@
         <v>GEP00007_01B11</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:7">
       <c r="A84" t="s">
         <v>182</v>
       </c>
@@ -7682,7 +7722,7 @@
         <v>GEP00007_01C11</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:7">
       <c r="A85" t="s">
         <v>182</v>
       </c>
@@ -7706,7 +7746,7 @@
         <v>GEP00007_01D11</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:7">
       <c r="A86" t="s">
         <v>182</v>
       </c>
@@ -7730,7 +7770,7 @@
         <v>GEP00007_01E11</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:7">
       <c r="A87" t="s">
         <v>182</v>
       </c>
@@ -7754,7 +7794,7 @@
         <v>GEP00007_01F11</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:7">
       <c r="A88" t="s">
         <v>182</v>
       </c>
@@ -7778,7 +7818,7 @@
         <v>GEP00007_01G11</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:7">
       <c r="A89" t="s">
         <v>182</v>
       </c>
@@ -7802,7 +7842,7 @@
         <v>GEP00007_01H11</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:7">
       <c r="A90" t="s">
         <v>182</v>
       </c>
@@ -7826,7 +7866,7 @@
         <v>GEP00007_01A12</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:7">
       <c r="A91" t="s">
         <v>182</v>
       </c>
@@ -7850,7 +7890,7 @@
         <v>GEP00007_01B12</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:7">
       <c r="A92" t="s">
         <v>182</v>
       </c>
@@ -7874,7 +7914,7 @@
         <v>GEP00007_01C12</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:7">
       <c r="A93" t="s">
         <v>182</v>
       </c>
@@ -7898,7 +7938,7 @@
         <v>GEP00007_01D12</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:7">
       <c r="A94" t="s">
         <v>182</v>
       </c>
@@ -7922,7 +7962,7 @@
         <v>GEP00007_01E12</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:7">
       <c r="A95" t="s">
         <v>182</v>
       </c>
@@ -7946,7 +7986,7 @@
         <v>GEP00007_01F12</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:7">
       <c r="A96" t="s">
         <v>182</v>
       </c>
@@ -7970,7 +8010,7 @@
         <v>GEP00007_01G12</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:7">
       <c r="A97" t="s">
         <v>182</v>
       </c>
@@ -7994,7 +8034,7 @@
         <v>GEP00007_01H12</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:7">
       <c r="A98" t="s">
         <v>183</v>
       </c>
@@ -8018,7 +8058,7 @@
         <v>GEP00007_02A1</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:7">
       <c r="A99" t="s">
         <v>183</v>
       </c>
@@ -8042,7 +8082,7 @@
         <v>GEP00007_02B1</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:7">
       <c r="A100" t="s">
         <v>183</v>
       </c>
@@ -8066,7 +8106,7 @@
         <v>GEP00007_02C1</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:7">
       <c r="A101" t="s">
         <v>183</v>
       </c>
@@ -8090,7 +8130,7 @@
         <v>GEP00007_02D1</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:7">
       <c r="A102" t="s">
         <v>183</v>
       </c>
@@ -8114,7 +8154,7 @@
         <v>GEP00007_02E1</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:7">
       <c r="A103" t="s">
         <v>183</v>
       </c>
@@ -8138,7 +8178,7 @@
         <v>GEP00007_02F1</v>
       </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:7">
       <c r="A104" t="s">
         <v>183</v>
       </c>
@@ -8162,7 +8202,7 @@
         <v>GEP00007_02G1</v>
       </c>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:7">
       <c r="A105" t="s">
         <v>183</v>
       </c>
@@ -8186,7 +8226,7 @@
         <v>GEP00007_02H1</v>
       </c>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:7">
       <c r="A106" t="s">
         <v>183</v>
       </c>
@@ -8210,7 +8250,7 @@
         <v>GEP00007_02A2</v>
       </c>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:7">
       <c r="A107" t="s">
         <v>183</v>
       </c>
@@ -8234,7 +8274,7 @@
         <v>GEP00007_02B2</v>
       </c>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:7">
       <c r="A108" t="s">
         <v>183</v>
       </c>
@@ -8258,7 +8298,7 @@
         <v>GEP00007_02C2</v>
       </c>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:7">
       <c r="A109" t="s">
         <v>183</v>
       </c>
@@ -8282,7 +8322,7 @@
         <v>GEP00007_02D2</v>
       </c>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:7">
       <c r="A110" t="s">
         <v>183</v>
       </c>
@@ -8306,7 +8346,7 @@
         <v>GEP00007_02E2</v>
       </c>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:7">
       <c r="A111" t="s">
         <v>183</v>
       </c>
@@ -8330,7 +8370,7 @@
         <v>GEP00007_02F2</v>
       </c>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:7">
       <c r="A112" t="s">
         <v>183</v>
       </c>
@@ -8354,7 +8394,7 @@
         <v>GEP00007_02G2</v>
       </c>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:7">
       <c r="A113" t="s">
         <v>183</v>
       </c>
@@ -8378,7 +8418,7 @@
         <v>GEP00007_02H2</v>
       </c>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:7">
       <c r="A114" t="s">
         <v>183</v>
       </c>
@@ -8402,7 +8442,7 @@
         <v>GEP00007_02A3</v>
       </c>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:7">
       <c r="A115" t="s">
         <v>183</v>
       </c>
@@ -8426,7 +8466,7 @@
         <v>GEP00007_02B3</v>
       </c>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:7">
       <c r="A116" t="s">
         <v>183</v>
       </c>
@@ -8450,7 +8490,7 @@
         <v>GEP00007_02C3</v>
       </c>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:7">
       <c r="A117" t="s">
         <v>183</v>
       </c>
@@ -8474,7 +8514,7 @@
         <v>GEP00007_02D3</v>
       </c>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:7">
       <c r="A118" t="s">
         <v>183</v>
       </c>
@@ -8498,7 +8538,7 @@
         <v>GEP00007_02E3</v>
       </c>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:7">
       <c r="A119" t="s">
         <v>183</v>
       </c>
@@ -8522,7 +8562,7 @@
         <v>GEP00007_02F3</v>
       </c>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:7">
       <c r="A120" t="s">
         <v>183</v>
       </c>
@@ -8546,7 +8586,7 @@
         <v>GEP00007_02G3</v>
       </c>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:7">
       <c r="A121" t="s">
         <v>183</v>
       </c>
@@ -8577,5 +8617,10 @@
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
   </headerFooter>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/data/GEP00007/GEP00007_ARID1A.xlsx
+++ b/data/GEP00007/GEP00007_ARID1A.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="28705"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8200" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28280" windowHeight="17300" tabRatio="500" firstSheet="1" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Project" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
     <sheet name="Plate" sheetId="7" r:id="rId7"/>
     <sheet name="SequencingLibrary" sheetId="8" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="140001" iterateDelta="1E-4" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -214,9 +214,6 @@
     <t>Human</t>
   </si>
   <si>
-    <t>Forward</t>
-  </si>
-  <si>
     <t>CGG</t>
   </si>
   <si>
@@ -226,9 +223,6 @@
     <t>gene</t>
   </si>
   <si>
-    <t>GRCh38.p7</t>
-  </si>
-  <si>
     <t>A1</t>
   </si>
   <si>
@@ -529,9 +523,6 @@
     <t>SAMPLE</t>
   </si>
   <si>
-    <t>NON-FIXED CELLS</t>
-  </si>
-  <si>
     <t>Fluidigm</t>
   </si>
   <si>
@@ -950,6 +941,15 @@
   </si>
   <si>
     <t>SLX-15104</t>
+  </si>
+  <si>
+    <t>forward</t>
+  </si>
+  <si>
+    <t>GRCh37.p13</t>
+  </si>
+  <si>
+    <t>non-fixed cells</t>
   </si>
 </sst>
 </file>
@@ -1021,8 +1021,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
@@ -1043,9 +1045,11 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="5">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1316,7 +1320,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1326,7 +1330,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I3"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="68" zoomScaleNormal="68" zoomScalePageLayoutView="68" workbookViewId="0">
+    <sheetView zoomScale="68" zoomScaleNormal="68" zoomScalePageLayoutView="68" workbookViewId="0">
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
@@ -1369,10 +1373,10 @@
     </row>
     <row r="2" spans="1:9">
       <c r="A2" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B2" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="C2" t="s">
         <v>59</v>
@@ -1393,7 +1397,7 @@
         <v>58</v>
       </c>
       <c r="I2" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -1418,12 +1422,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J3"/>
   <sheetViews>
-    <sheetView zoomScale="68" zoomScaleNormal="68" zoomScalePageLayoutView="68" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
   <cols>
+    <col min="4" max="4" width="10.1640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.5" customWidth="1"/>
     <col min="7" max="7" width="10.33203125" customWidth="1"/>
   </cols>
@@ -1462,19 +1467,19 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B2" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="C2" t="s">
         <v>60</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>65</v>
+        <v>305</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="F2">
         <v>1</v>
@@ -1486,10 +1491,10 @@
         <v>26782110</v>
       </c>
       <c r="I2" t="s">
-        <v>61</v>
+        <v>304</v>
       </c>
       <c r="J2" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -1551,16 +1556,16 @@
     </row>
     <row r="2" spans="1:7" ht="14">
       <c r="A2" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="B2" t="s">
+        <v>171</v>
+      </c>
+      <c r="C2" s="6" t="s">
         <v>174</v>
       </c>
-      <c r="C2" s="6" t="s">
-        <v>177</v>
-      </c>
       <c r="D2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E2">
         <v>70</v>
@@ -1569,21 +1574,21 @@
         <v>2</v>
       </c>
       <c r="G2" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="14">
       <c r="A3" t="s">
+        <v>173</v>
+      </c>
+      <c r="B3" t="s">
+        <v>172</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="D3" t="s">
         <v>176</v>
-      </c>
-      <c r="B3" t="s">
-        <v>175</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>178</v>
-      </c>
-      <c r="D3" t="s">
-        <v>179</v>
       </c>
       <c r="E3">
         <v>65</v>
@@ -1592,7 +1597,7 @@
         <v>2</v>
       </c>
       <c r="G3" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
   </sheetData>
@@ -1659,7 +1664,7 @@
   <dimension ref="A1:Q6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
@@ -1734,23 +1739,23 @@
     </row>
     <row r="2" spans="1:17" ht="13">
       <c r="A2" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="B2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C2">
         <f>L2+99</f>
         <v>26729794</v>
       </c>
       <c r="D2" t="s">
-        <v>61</v>
+        <v>304</v>
       </c>
       <c r="F2" t="b">
         <v>1</v>
       </c>
       <c r="G2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H2">
         <v>1</v>
@@ -1759,7 +1764,7 @@
         <v>346</v>
       </c>
       <c r="J2" s="7" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="K2" s="2">
         <v>26729676</v>
@@ -1771,7 +1776,7 @@
         <v>347</v>
       </c>
       <c r="N2" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="O2" s="7">
         <v>26729886</v>
@@ -1780,28 +1785,28 @@
         <v>26729905</v>
       </c>
       <c r="Q2" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="3" spans="1:17" ht="13">
       <c r="A3" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="B3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C3">
         <f>L3+118</f>
         <v>26729813</v>
       </c>
       <c r="D3" t="s">
-        <v>61</v>
+        <v>304</v>
       </c>
       <c r="F3" t="b">
         <v>1</v>
       </c>
       <c r="G3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H3">
         <v>1</v>
@@ -1810,7 +1815,7 @@
         <v>346</v>
       </c>
       <c r="J3" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="K3">
         <v>26729676</v>
@@ -1822,7 +1827,7 @@
         <v>347</v>
       </c>
       <c r="N3" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="O3" s="7">
         <v>26729886</v>
@@ -1831,7 +1836,7 @@
         <v>26729905</v>
       </c>
       <c r="Q3" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -1856,7 +1861,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J121"/>
   <sheetViews>
-    <sheetView zoomScale="68" zoomScaleNormal="68" zoomScalePageLayoutView="68" workbookViewId="0">
+    <sheetView topLeftCell="A41" workbookViewId="0">
       <selection activeCell="C74" sqref="C74:C81"/>
     </sheetView>
   </sheetViews>
@@ -1904,13 +1909,13 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B2" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -1919,30 +1924,30 @@
         <v>1</v>
       </c>
       <c r="J2" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B3" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D3" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E3">
         <v>69.099999999999994</v>
       </c>
       <c r="F3" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="G3" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="H3">
         <v>1</v>
@@ -1951,30 +1956,30 @@
         <v>0</v>
       </c>
       <c r="J3" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B4" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D4" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E4">
         <v>69.099999999999994</v>
       </c>
       <c r="F4" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="G4" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="H4">
         <v>2</v>
@@ -1983,30 +1988,30 @@
         <v>0</v>
       </c>
       <c r="J4" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B5" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C5" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D5" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E5">
         <v>69.099999999999994</v>
       </c>
       <c r="F5" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="G5" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="H5">
         <v>3</v>
@@ -2015,30 +2020,30 @@
         <v>0</v>
       </c>
       <c r="J5" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B6" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C6" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D6" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E6">
         <v>69.099999999999994</v>
       </c>
       <c r="F6" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="G6" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="H6">
         <v>4</v>
@@ -2047,30 +2052,30 @@
         <v>0</v>
       </c>
       <c r="J6" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B7" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C7" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D7" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E7">
         <v>69.099999999999994</v>
       </c>
       <c r="F7" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="G7" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="H7">
         <v>5</v>
@@ -2079,30 +2084,30 @@
         <v>0</v>
       </c>
       <c r="J7" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B8" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C8" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D8" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E8">
         <v>69.099999999999994</v>
       </c>
       <c r="F8" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="G8" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="H8">
         <v>6</v>
@@ -2111,30 +2116,30 @@
         <v>0</v>
       </c>
       <c r="J8" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="9" spans="1:10">
       <c r="A9" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B9" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C9" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D9" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E9">
         <v>69.099999999999994</v>
       </c>
       <c r="F9" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="G9" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="H9">
         <v>7</v>
@@ -2143,30 +2148,30 @@
         <v>0</v>
       </c>
       <c r="J9" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="10" spans="1:10">
       <c r="A10" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B10" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C10" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D10" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E10">
         <v>69.099999999999994</v>
       </c>
       <c r="F10" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="G10" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="H10">
         <v>8</v>
@@ -2175,30 +2180,30 @@
         <v>0</v>
       </c>
       <c r="J10" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B11" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C11" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D11" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E11">
         <v>69.099999999999994</v>
       </c>
       <c r="F11" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="G11" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="H11">
         <v>9</v>
@@ -2207,30 +2212,30 @@
         <v>0</v>
       </c>
       <c r="J11" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="12" spans="1:10">
       <c r="A12" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B12" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C12" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D12" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E12">
         <v>69.099999999999994</v>
       </c>
       <c r="F12" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="G12" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="H12">
         <v>10</v>
@@ -2239,30 +2244,30 @@
         <v>0</v>
       </c>
       <c r="J12" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="13" spans="1:10">
       <c r="A13" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B13" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C13" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D13" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E13">
         <v>69.099999999999994</v>
       </c>
       <c r="F13" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="G13" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="H13">
         <v>11</v>
@@ -2271,30 +2276,30 @@
         <v>0</v>
       </c>
       <c r="J13" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="14" spans="1:10">
       <c r="A14" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B14" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C14" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D14" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E14">
         <v>69.099999999999994</v>
       </c>
       <c r="F14" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="G14" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="H14">
         <v>12</v>
@@ -2303,30 +2308,30 @@
         <v>0</v>
       </c>
       <c r="J14" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="15" spans="1:10">
       <c r="A15" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B15" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C15" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D15" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E15">
         <v>69.099999999999994</v>
       </c>
       <c r="F15" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="G15" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="H15">
         <v>13</v>
@@ -2335,30 +2340,30 @@
         <v>0</v>
       </c>
       <c r="J15" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="16" spans="1:10">
       <c r="A16" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B16" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C16" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D16" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E16">
         <v>69.099999999999994</v>
       </c>
       <c r="F16" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="G16" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="H16">
         <v>14</v>
@@ -2367,30 +2372,30 @@
         <v>0</v>
       </c>
       <c r="J16" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="17" spans="1:10">
       <c r="A17" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B17" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C17" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D17" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E17">
         <v>69.099999999999994</v>
       </c>
       <c r="F17" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="G17" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="H17">
         <v>15</v>
@@ -2399,30 +2404,30 @@
         <v>0</v>
       </c>
       <c r="J17" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="18" spans="1:10">
       <c r="A18" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B18" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C18" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D18" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E18">
         <v>69.099999999999994</v>
       </c>
       <c r="F18" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="G18" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="H18">
         <v>16</v>
@@ -2431,30 +2436,30 @@
         <v>0</v>
       </c>
       <c r="J18" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="19" spans="1:10">
       <c r="A19" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B19" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C19" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D19" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E19">
         <v>69.099999999999994</v>
       </c>
       <c r="F19" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="G19" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="H19">
         <v>17</v>
@@ -2463,30 +2468,30 @@
         <v>0</v>
       </c>
       <c r="J19" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="20" spans="1:10">
       <c r="A20" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B20" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C20" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D20" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E20">
         <v>69.099999999999994</v>
       </c>
       <c r="F20" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="G20" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="H20">
         <v>18</v>
@@ -2495,30 +2500,30 @@
         <v>0</v>
       </c>
       <c r="J20" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="21" spans="1:10">
       <c r="A21" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B21" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C21" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D21" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E21">
         <v>69.099999999999994</v>
       </c>
       <c r="F21" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="G21" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="H21">
         <v>19</v>
@@ -2527,30 +2532,30 @@
         <v>0</v>
       </c>
       <c r="J21" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="22" spans="1:10">
       <c r="A22" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B22" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C22" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D22" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E22">
         <v>69.3</v>
       </c>
       <c r="F22" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="G22" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="H22">
         <v>20</v>
@@ -2559,30 +2564,30 @@
         <v>0</v>
       </c>
       <c r="J22" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="23" spans="1:10">
       <c r="A23" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B23" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C23" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D23" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E23">
         <v>69.3</v>
       </c>
       <c r="F23" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="G23" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="H23">
         <v>21</v>
@@ -2591,30 +2596,30 @@
         <v>0</v>
       </c>
       <c r="J23" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="24" spans="1:10">
       <c r="A24" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B24" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C24" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D24" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E24">
         <v>69.3</v>
       </c>
       <c r="F24" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="G24" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="H24">
         <v>22</v>
@@ -2623,30 +2628,30 @@
         <v>0</v>
       </c>
       <c r="J24" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="25" spans="1:10">
       <c r="A25" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B25" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C25" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D25" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E25">
         <v>69.3</v>
       </c>
       <c r="F25" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="G25" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="H25">
         <v>23</v>
@@ -2655,30 +2660,30 @@
         <v>0</v>
       </c>
       <c r="J25" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="26" spans="1:10">
       <c r="A26" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B26" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C26" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D26" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E26">
         <v>69.3</v>
       </c>
       <c r="F26" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="G26" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="H26">
         <v>24</v>
@@ -2687,30 +2692,30 @@
         <v>0</v>
       </c>
       <c r="J26" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="27" spans="1:10">
       <c r="A27" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B27" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C27" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D27" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E27">
         <v>69.3</v>
       </c>
       <c r="F27" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="G27" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="H27">
         <v>25</v>
@@ -2719,30 +2724,30 @@
         <v>0</v>
       </c>
       <c r="J27" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="28" spans="1:10">
       <c r="A28" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B28" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C28" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D28" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E28">
         <v>69.3</v>
       </c>
       <c r="F28" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="G28" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="H28">
         <v>26</v>
@@ -2751,30 +2756,30 @@
         <v>0</v>
       </c>
       <c r="J28" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="29" spans="1:10">
       <c r="A29" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B29" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C29" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D29" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E29">
         <v>69.3</v>
       </c>
       <c r="F29" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="G29" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="H29">
         <v>27</v>
@@ -2783,30 +2788,30 @@
         <v>0</v>
       </c>
       <c r="J29" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="30" spans="1:10">
       <c r="A30" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B30" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C30" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D30" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E30">
         <v>69.3</v>
       </c>
       <c r="F30" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="G30" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="H30">
         <v>28</v>
@@ -2815,30 +2820,30 @@
         <v>0</v>
       </c>
       <c r="J30" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="31" spans="1:10">
       <c r="A31" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B31" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C31" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D31" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E31">
         <v>69.3</v>
       </c>
       <c r="F31" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="G31" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="H31">
         <v>29</v>
@@ -2847,30 +2852,30 @@
         <v>0</v>
       </c>
       <c r="J31" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="32" spans="1:10">
       <c r="A32" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B32" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C32" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D32" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E32">
         <v>69.3</v>
       </c>
       <c r="F32" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="G32" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="H32">
         <v>30</v>
@@ -2879,30 +2884,30 @@
         <v>0</v>
       </c>
       <c r="J32" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="33" spans="1:10">
       <c r="A33" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B33" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C33" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D33" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E33">
         <v>69.3</v>
       </c>
       <c r="F33" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="G33" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="H33">
         <v>31</v>
@@ -2911,30 +2916,30 @@
         <v>0</v>
       </c>
       <c r="J33" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="34" spans="1:10">
       <c r="A34" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B34" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C34" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D34" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E34">
         <v>69.3</v>
       </c>
       <c r="F34" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="G34" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="H34">
         <v>32</v>
@@ -2943,30 +2948,30 @@
         <v>0</v>
       </c>
       <c r="J34" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="35" spans="1:10">
       <c r="A35" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B35" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C35" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D35" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E35">
         <v>69.3</v>
       </c>
       <c r="F35" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="G35" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="H35">
         <v>33</v>
@@ -2975,30 +2980,30 @@
         <v>0</v>
       </c>
       <c r="J35" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="36" spans="1:10">
       <c r="A36" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B36" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C36" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D36" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E36">
         <v>69.3</v>
       </c>
       <c r="F36" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="G36" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="H36">
         <v>34</v>
@@ -3007,30 +3012,30 @@
         <v>0</v>
       </c>
       <c r="J36" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="37" spans="1:10">
       <c r="A37" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B37" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C37" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D37" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E37">
         <v>69.3</v>
       </c>
       <c r="F37" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="G37" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="H37">
         <v>35</v>
@@ -3039,30 +3044,30 @@
         <v>0</v>
       </c>
       <c r="J37" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="38" spans="1:10">
       <c r="A38" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B38" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C38" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D38" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E38">
         <v>73.2</v>
       </c>
       <c r="F38" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="G38" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="H38">
         <v>36</v>
@@ -3071,30 +3076,30 @@
         <v>0</v>
       </c>
       <c r="J38" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="39" spans="1:10">
       <c r="A39" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B39" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C39" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D39" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E39">
         <v>73.2</v>
       </c>
       <c r="F39" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="G39" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="H39">
         <v>37</v>
@@ -3103,30 +3108,30 @@
         <v>0</v>
       </c>
       <c r="J39" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="40" spans="1:10">
       <c r="A40" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B40" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C40" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D40" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E40">
         <v>73.2</v>
       </c>
       <c r="F40" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="G40" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="H40">
         <v>38</v>
@@ -3135,30 +3140,30 @@
         <v>0</v>
       </c>
       <c r="J40" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="41" spans="1:10">
       <c r="A41" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B41" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C41" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D41" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E41">
         <v>73.2</v>
       </c>
       <c r="F41" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="G41" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="H41">
         <v>39</v>
@@ -3167,30 +3172,30 @@
         <v>0</v>
       </c>
       <c r="J41" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="42" spans="1:10">
       <c r="A42" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B42" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C42" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D42" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E42">
         <v>73.2</v>
       </c>
       <c r="F42" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="G42" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="H42">
         <v>40</v>
@@ -3199,30 +3204,30 @@
         <v>0</v>
       </c>
       <c r="J42" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="43" spans="1:10">
       <c r="A43" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B43" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C43" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D43" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E43">
         <v>73.2</v>
       </c>
       <c r="F43" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="G43" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="H43">
         <v>41</v>
@@ -3231,30 +3236,30 @@
         <v>0</v>
       </c>
       <c r="J43" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="44" spans="1:10">
       <c r="A44" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B44" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C44" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D44" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E44">
         <v>73.2</v>
       </c>
       <c r="F44" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="G44" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="H44">
         <v>42</v>
@@ -3263,30 +3268,30 @@
         <v>0</v>
       </c>
       <c r="J44" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="45" spans="1:10">
       <c r="A45" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B45" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C45" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D45" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E45">
         <v>73.2</v>
       </c>
       <c r="F45" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="G45" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="H45">
         <v>43</v>
@@ -3295,30 +3300,30 @@
         <v>0</v>
       </c>
       <c r="J45" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="46" spans="1:10">
       <c r="A46" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B46" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C46" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D46" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E46">
         <v>73.2</v>
       </c>
       <c r="F46" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="G46" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="H46">
         <v>44</v>
@@ -3327,30 +3332,30 @@
         <v>0</v>
       </c>
       <c r="J46" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="47" spans="1:10">
       <c r="A47" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B47" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C47" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D47" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E47">
         <v>73.2</v>
       </c>
       <c r="F47" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="G47" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="H47">
         <v>45</v>
@@ -3359,30 +3364,30 @@
         <v>0</v>
       </c>
       <c r="J47" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="48" spans="1:10">
       <c r="A48" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B48" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C48" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D48" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E48">
         <v>73.2</v>
       </c>
       <c r="F48" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="G48" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="H48">
         <v>46</v>
@@ -3391,30 +3396,30 @@
         <v>0</v>
       </c>
       <c r="J48" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="49" spans="1:10">
       <c r="A49" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B49" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C49" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D49" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E49">
         <v>73.2</v>
       </c>
       <c r="F49" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="G49" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="H49">
         <v>47</v>
@@ -3423,30 +3428,30 @@
         <v>0</v>
       </c>
       <c r="J49" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="50" spans="1:10">
       <c r="A50" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B50" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C50" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D50" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E50">
         <v>73.2</v>
       </c>
       <c r="F50" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="G50" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="H50">
         <v>48</v>
@@ -3455,30 +3460,30 @@
         <v>0</v>
       </c>
       <c r="J50" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="51" spans="1:10">
       <c r="A51" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B51" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C51" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D51" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E51">
         <v>73.2</v>
       </c>
       <c r="F51" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="G51" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="H51">
         <v>49</v>
@@ -3487,30 +3492,30 @@
         <v>0</v>
       </c>
       <c r="J51" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="52" spans="1:10">
       <c r="A52" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B52" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C52" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D52" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E52">
         <v>73.2</v>
       </c>
       <c r="F52" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="G52" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="H52">
         <v>50</v>
@@ -3519,30 +3524,30 @@
         <v>0</v>
       </c>
       <c r="J52" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="53" spans="1:10">
       <c r="A53" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B53" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C53" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D53" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E53">
         <v>73.2</v>
       </c>
       <c r="F53" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="G53" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="H53">
         <v>51</v>
@@ -3551,30 +3556,30 @@
         <v>0</v>
       </c>
       <c r="J53" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="54" spans="1:10">
       <c r="A54" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B54" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C54" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D54" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E54">
         <v>73.2</v>
       </c>
       <c r="F54" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="G54" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="H54">
         <v>52</v>
@@ -3583,30 +3588,30 @@
         <v>0</v>
       </c>
       <c r="J54" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="55" spans="1:10">
       <c r="A55" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B55" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C55" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D55" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E55">
         <v>73.2</v>
       </c>
       <c r="F55" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="G55" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="H55">
         <v>53</v>
@@ -3615,30 +3620,30 @@
         <v>0</v>
       </c>
       <c r="J55" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="56" spans="1:10">
       <c r="A56" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B56" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C56" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D56" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E56">
         <v>73.2</v>
       </c>
       <c r="F56" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="G56" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="H56">
         <v>54</v>
@@ -3647,30 +3652,30 @@
         <v>0</v>
       </c>
       <c r="J56" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="57" spans="1:10">
       <c r="A57" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B57" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C57" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D57" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E57">
         <v>73.2</v>
       </c>
       <c r="F57" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="G57" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="H57">
         <v>55</v>
@@ -3679,30 +3684,30 @@
         <v>0</v>
       </c>
       <c r="J57" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="58" spans="1:10">
       <c r="A58" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B58" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C58" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D58" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E58">
         <v>73.2</v>
       </c>
       <c r="F58" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="G58" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="H58">
         <v>56</v>
@@ -3711,30 +3716,30 @@
         <v>0</v>
       </c>
       <c r="J58" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="59" spans="1:10">
       <c r="A59" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B59" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C59" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D59" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E59">
         <v>73.2</v>
       </c>
       <c r="F59" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="G59" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="H59">
         <v>57</v>
@@ -3743,30 +3748,30 @@
         <v>0</v>
       </c>
       <c r="J59" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="60" spans="1:10">
       <c r="A60" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B60" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C60" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D60" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E60">
         <v>73.2</v>
       </c>
       <c r="F60" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="G60" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="H60">
         <v>58</v>
@@ -3775,30 +3780,30 @@
         <v>0</v>
       </c>
       <c r="J60" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="61" spans="1:10">
       <c r="A61" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B61" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C61" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D61" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E61">
         <v>73.2</v>
       </c>
       <c r="F61" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="G61" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="H61">
         <v>59</v>
@@ -3807,30 +3812,30 @@
         <v>0</v>
       </c>
       <c r="J61" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="62" spans="1:10">
       <c r="A62" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B62" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C62" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D62" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E62">
         <v>73.2</v>
       </c>
       <c r="F62" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="G62" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="H62">
         <v>60</v>
@@ -3839,30 +3844,30 @@
         <v>0</v>
       </c>
       <c r="J62" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="63" spans="1:10">
       <c r="A63" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B63" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C63" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D63" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E63">
         <v>73.2</v>
       </c>
       <c r="F63" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="G63" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="H63">
         <v>61</v>
@@ -3871,30 +3876,30 @@
         <v>0</v>
       </c>
       <c r="J63" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="64" spans="1:10">
       <c r="A64" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B64" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C64" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D64" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E64">
         <v>73.2</v>
       </c>
       <c r="F64" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="G64" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="H64">
         <v>62</v>
@@ -3903,30 +3908,30 @@
         <v>0</v>
       </c>
       <c r="J64" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="65" spans="1:10">
       <c r="A65" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B65" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C65" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D65" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E65">
         <v>73.2</v>
       </c>
       <c r="F65" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="G65" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="H65">
         <v>63</v>
@@ -3935,30 +3940,30 @@
         <v>0</v>
       </c>
       <c r="J65" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="66" spans="1:10">
       <c r="A66" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B66" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C66" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D66" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E66">
         <v>73.2</v>
       </c>
       <c r="F66" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="G66" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="H66">
         <v>64</v>
@@ -3967,30 +3972,30 @@
         <v>0</v>
       </c>
       <c r="J66" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="67" spans="1:10">
       <c r="A67" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B67" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C67" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D67" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E67">
         <v>73.2</v>
       </c>
       <c r="F67" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="G67" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="H67">
         <v>65</v>
@@ -3999,30 +4004,30 @@
         <v>0</v>
       </c>
       <c r="J67" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="68" spans="1:10">
       <c r="A68" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B68" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C68" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D68" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E68">
         <v>73.2</v>
       </c>
       <c r="F68" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="G68" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="H68">
         <v>66</v>
@@ -4031,30 +4036,30 @@
         <v>0</v>
       </c>
       <c r="J68" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="69" spans="1:10">
       <c r="A69" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B69" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C69" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D69" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E69">
         <v>73.2</v>
       </c>
       <c r="F69" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="G69" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="H69">
         <v>67</v>
@@ -4063,30 +4068,30 @@
         <v>0</v>
       </c>
       <c r="J69" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="70" spans="1:10">
       <c r="A70" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B70" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C70" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D70" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E70">
         <v>73.2</v>
       </c>
       <c r="F70" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="G70" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="H70">
         <v>68</v>
@@ -4095,30 +4100,30 @@
         <v>0</v>
       </c>
       <c r="J70" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="71" spans="1:10">
       <c r="A71" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B71" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C71" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D71" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E71">
         <v>73.2</v>
       </c>
       <c r="F71" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="G71" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="H71">
         <v>69</v>
@@ -4127,30 +4132,30 @@
         <v>0</v>
       </c>
       <c r="J71" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="72" spans="1:10">
       <c r="A72" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B72" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C72" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D72" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E72">
         <v>73.2</v>
       </c>
       <c r="F72" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="G72" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="H72">
         <v>70</v>
@@ -4159,30 +4164,30 @@
         <v>0</v>
       </c>
       <c r="J72" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="73" spans="1:10">
       <c r="A73" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B73" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C73" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D73" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E73">
         <v>73.2</v>
       </c>
       <c r="F73" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="G73" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="H73">
         <v>71</v>
@@ -4191,30 +4196,30 @@
         <v>0</v>
       </c>
       <c r="J73" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="74" spans="1:10">
       <c r="A74" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B74" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C74" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D74" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E74">
         <v>73.3</v>
       </c>
       <c r="F74" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="G74" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="H74">
         <v>72</v>
@@ -4223,30 +4228,30 @@
         <v>0</v>
       </c>
       <c r="J74" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="75" spans="1:10">
       <c r="A75" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B75" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C75" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D75" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E75">
         <v>73.3</v>
       </c>
       <c r="F75" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="G75" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="H75">
         <v>73</v>
@@ -4255,30 +4260,30 @@
         <v>0</v>
       </c>
       <c r="J75" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="76" spans="1:10">
       <c r="A76" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B76" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C76" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D76" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E76">
         <v>73.3</v>
       </c>
       <c r="F76" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="G76" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="H76">
         <v>74</v>
@@ -4287,30 +4292,30 @@
         <v>0</v>
       </c>
       <c r="J76" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="77" spans="1:10">
       <c r="A77" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B77" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C77" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D77" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E77">
         <v>73.3</v>
       </c>
       <c r="F77" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="G77" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="H77">
         <v>75</v>
@@ -4319,30 +4324,30 @@
         <v>0</v>
       </c>
       <c r="J77" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="78" spans="1:10">
       <c r="A78" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B78" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C78" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D78" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E78">
         <v>73.3</v>
       </c>
       <c r="F78" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="G78" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="H78">
         <v>76</v>
@@ -4351,30 +4356,30 @@
         <v>0</v>
       </c>
       <c r="J78" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="79" spans="1:10">
       <c r="A79" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B79" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C79" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D79" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E79">
         <v>73.3</v>
       </c>
       <c r="F79" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="G79" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="H79">
         <v>77</v>
@@ -4383,30 +4388,30 @@
         <v>0</v>
       </c>
       <c r="J79" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="80" spans="1:10">
       <c r="A80" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B80" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C80" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D80" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E80">
         <v>73.3</v>
       </c>
       <c r="F80" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="G80" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="H80">
         <v>78</v>
@@ -4415,30 +4420,30 @@
         <v>0</v>
       </c>
       <c r="J80" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="81" spans="1:10">
       <c r="A81" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B81" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C81" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D81" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E81">
         <v>73.3</v>
       </c>
       <c r="F81" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="G81" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="H81">
         <v>79</v>
@@ -4447,18 +4452,18 @@
         <v>0</v>
       </c>
       <c r="J81" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="82" spans="1:10">
       <c r="A82" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B82" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C82" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="H82">
         <v>0</v>
@@ -4467,18 +4472,18 @@
         <v>1</v>
       </c>
       <c r="J82" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="83" spans="1:10">
       <c r="A83" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B83" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C83" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="H83">
         <v>0</v>
@@ -4487,18 +4492,18 @@
         <v>1</v>
       </c>
       <c r="J83" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="84" spans="1:10">
       <c r="A84" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B84" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C84" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="H84">
         <v>0</v>
@@ -4507,18 +4512,18 @@
         <v>1</v>
       </c>
       <c r="J84" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="85" spans="1:10">
       <c r="A85" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B85" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C85" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="H85">
         <v>0</v>
@@ -4527,18 +4532,18 @@
         <v>1</v>
       </c>
       <c r="J85" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="86" spans="1:10">
       <c r="A86" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B86" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C86" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="H86">
         <v>0</v>
@@ -4547,18 +4552,18 @@
         <v>1</v>
       </c>
       <c r="J86" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="87" spans="1:10">
       <c r="A87" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B87" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C87" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="H87">
         <v>0</v>
@@ -4567,18 +4572,18 @@
         <v>1</v>
       </c>
       <c r="J87" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="88" spans="1:10">
       <c r="A88" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B88" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C88" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="H88">
         <v>0</v>
@@ -4587,18 +4592,18 @@
         <v>1</v>
       </c>
       <c r="J88" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="89" spans="1:10">
       <c r="A89" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B89" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C89" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="H89">
         <v>0</v>
@@ -4607,30 +4612,30 @@
         <v>1</v>
       </c>
       <c r="J89" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="90" spans="1:10">
       <c r="A90" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B90" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C90" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D90" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E90">
         <v>73.3</v>
       </c>
       <c r="F90" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="G90" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="H90">
         <v>80</v>
@@ -4639,30 +4644,30 @@
         <v>0</v>
       </c>
       <c r="J90" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="91" spans="1:10">
       <c r="A91" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B91" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C91" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D91" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E91">
         <v>73.3</v>
       </c>
       <c r="F91" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="G91" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="H91">
         <v>81</v>
@@ -4671,30 +4676,30 @@
         <v>0</v>
       </c>
       <c r="J91" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="92" spans="1:10">
       <c r="A92" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B92" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C92" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D92" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E92">
         <v>73.3</v>
       </c>
       <c r="F92" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="G92" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="H92">
         <v>82</v>
@@ -4703,30 +4708,30 @@
         <v>0</v>
       </c>
       <c r="J92" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="93" spans="1:10">
       <c r="A93" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B93" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C93" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D93" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E93">
         <v>73.3</v>
       </c>
       <c r="F93" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="G93" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="H93">
         <v>83</v>
@@ -4735,30 +4740,30 @@
         <v>0</v>
       </c>
       <c r="J93" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="94" spans="1:10">
       <c r="A94" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B94" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C94" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D94" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E94">
         <v>73.3</v>
       </c>
       <c r="F94" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="G94" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="H94">
         <v>84</v>
@@ -4767,30 +4772,30 @@
         <v>0</v>
       </c>
       <c r="J94" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="95" spans="1:10">
       <c r="A95" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B95" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C95" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D95" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E95">
         <v>73.3</v>
       </c>
       <c r="F95" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="G95" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="H95">
         <v>85</v>
@@ -4799,30 +4804,30 @@
         <v>0</v>
       </c>
       <c r="J95" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="96" spans="1:10">
       <c r="A96" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B96" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C96" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D96" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E96">
         <v>73.3</v>
       </c>
       <c r="F96" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="G96" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="H96">
         <v>86</v>
@@ -4831,18 +4836,18 @@
         <v>0</v>
       </c>
       <c r="J96" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="97" spans="1:10">
       <c r="A97" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B97" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C97" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="H97">
         <v>0</v>
@@ -4851,18 +4856,18 @@
         <v>1</v>
       </c>
       <c r="J97" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="98" spans="1:10">
       <c r="A98" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B98" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="C98" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="H98">
         <v>0</v>
@@ -4871,30 +4876,30 @@
         <v>1</v>
       </c>
       <c r="J98" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="99" spans="1:10">
       <c r="A99" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B99" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="C99" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D99" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E99">
         <v>73.3</v>
       </c>
       <c r="F99" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="G99" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="H99">
         <v>87</v>
@@ -4903,30 +4908,30 @@
         <v>0</v>
       </c>
       <c r="J99" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="100" spans="1:10">
       <c r="A100" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B100" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="C100" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D100" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E100">
         <v>73.3</v>
       </c>
       <c r="F100" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="G100" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="H100">
         <v>88</v>
@@ -4935,30 +4940,30 @@
         <v>0</v>
       </c>
       <c r="J100" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="101" spans="1:10">
       <c r="A101" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B101" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="C101" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D101" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E101">
         <v>73.3</v>
       </c>
       <c r="F101" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="G101" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="H101">
         <v>89</v>
@@ -4967,30 +4972,30 @@
         <v>0</v>
       </c>
       <c r="J101" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="102" spans="1:10">
       <c r="A102" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B102" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="C102" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D102" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E102">
         <v>73.3</v>
       </c>
       <c r="F102" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="G102" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="H102">
         <v>90</v>
@@ -4999,30 +5004,30 @@
         <v>0</v>
       </c>
       <c r="J102" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="103" spans="1:10">
       <c r="A103" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B103" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="C103" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D103" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E103">
         <v>73.3</v>
       </c>
       <c r="F103" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="G103" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="H103">
         <v>91</v>
@@ -5031,30 +5036,30 @@
         <v>0</v>
       </c>
       <c r="J103" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="104" spans="1:10">
       <c r="A104" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B104" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="C104" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D104" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E104">
         <v>73.3</v>
       </c>
       <c r="F104" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="G104" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="H104">
         <v>92</v>
@@ -5063,30 +5068,30 @@
         <v>0</v>
       </c>
       <c r="J104" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="105" spans="1:10">
       <c r="A105" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B105" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="C105" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D105" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E105">
         <v>73.3</v>
       </c>
       <c r="F105" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="G105" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="H105">
         <v>93</v>
@@ -5095,30 +5100,30 @@
         <v>0</v>
       </c>
       <c r="J105" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="106" spans="1:10">
       <c r="A106" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B106" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="C106" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D106" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E106">
         <v>73.3</v>
       </c>
       <c r="F106" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="G106" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="H106">
         <v>94</v>
@@ -5127,30 +5132,30 @@
         <v>0</v>
       </c>
       <c r="J106" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="107" spans="1:10">
       <c r="A107" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B107" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="C107" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D107" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E107">
         <v>73.3</v>
       </c>
       <c r="F107" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="G107" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="H107">
         <v>95</v>
@@ -5159,30 +5164,30 @@
         <v>0</v>
       </c>
       <c r="J107" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="108" spans="1:10">
       <c r="A108" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B108" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="C108" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D108" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E108">
         <v>73.3</v>
       </c>
       <c r="F108" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="G108" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="H108">
         <v>96</v>
@@ -5191,30 +5196,30 @@
         <v>0</v>
       </c>
       <c r="J108" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="109" spans="1:10">
       <c r="A109" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B109" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="C109" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D109" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E109">
         <v>73.3</v>
       </c>
       <c r="F109" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="G109" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="H109">
         <v>97</v>
@@ -5223,30 +5228,30 @@
         <v>0</v>
       </c>
       <c r="J109" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="110" spans="1:10">
       <c r="A110" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B110" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="C110" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D110" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E110">
         <v>73.3</v>
       </c>
       <c r="F110" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="G110" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="H110">
         <v>98</v>
@@ -5255,30 +5260,30 @@
         <v>0</v>
       </c>
       <c r="J110" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="111" spans="1:10">
       <c r="A111" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B111" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="C111" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D111" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E111">
         <v>73.3</v>
       </c>
       <c r="F111" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="G111" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="H111">
         <v>99</v>
@@ -5287,30 +5292,30 @@
         <v>0</v>
       </c>
       <c r="J111" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="112" spans="1:10">
       <c r="A112" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B112" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="C112" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D112" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E112">
         <v>73.3</v>
       </c>
       <c r="F112" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="G112" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="H112">
         <v>100</v>
@@ -5319,30 +5324,30 @@
         <v>0</v>
       </c>
       <c r="J112" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="113" spans="1:10">
       <c r="A113" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B113" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="C113" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D113" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E113">
         <v>73.3</v>
       </c>
       <c r="F113" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="G113" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="H113">
         <v>101</v>
@@ -5351,30 +5356,30 @@
         <v>0</v>
       </c>
       <c r="J113" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="114" spans="1:10">
       <c r="A114" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B114" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="C114" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D114" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E114">
         <v>73.3</v>
       </c>
       <c r="F114" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="G114" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="H114">
         <v>102</v>
@@ -5383,30 +5388,30 @@
         <v>0</v>
       </c>
       <c r="J114" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="115" spans="1:10">
       <c r="A115" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B115" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="C115" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D115" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E115">
         <v>73.3</v>
       </c>
       <c r="F115" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="G115" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="H115">
         <v>103</v>
@@ -5415,30 +5420,30 @@
         <v>0</v>
       </c>
       <c r="J115" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="116" spans="1:10">
       <c r="A116" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B116" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="C116" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D116" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E116">
         <v>73.3</v>
       </c>
       <c r="F116" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="G116" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="H116">
         <v>104</v>
@@ -5447,30 +5452,30 @@
         <v>0</v>
       </c>
       <c r="J116" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="117" spans="1:10">
       <c r="A117" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B117" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="C117" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D117" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E117">
         <v>73.3</v>
       </c>
       <c r="F117" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="G117" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="H117">
         <v>105</v>
@@ -5479,30 +5484,30 @@
         <v>0</v>
       </c>
       <c r="J117" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="118" spans="1:10">
       <c r="A118" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B118" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="C118" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D118" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E118">
         <v>73.3</v>
       </c>
       <c r="F118" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="G118" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="H118">
         <v>106</v>
@@ -5511,30 +5516,30 @@
         <v>0</v>
       </c>
       <c r="J118" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="119" spans="1:10">
       <c r="A119" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B119" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="C119" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D119" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E119">
         <v>73.3</v>
       </c>
       <c r="F119" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="G119" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="H119">
         <v>107</v>
@@ -5543,30 +5548,30 @@
         <v>0</v>
       </c>
       <c r="J119" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="120" spans="1:10">
       <c r="A120" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B120" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="C120" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D120" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E120">
         <v>73.3</v>
       </c>
       <c r="F120" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="G120" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="H120">
         <v>108</v>
@@ -5575,30 +5580,30 @@
         <v>0</v>
       </c>
       <c r="J120" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="121" spans="1:10">
       <c r="A121" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B121" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="C121" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D121" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E121">
         <v>73.3</v>
       </c>
       <c r="F121" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="G121" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="H121">
         <v>109</v>
@@ -5607,7 +5612,7 @@
         <v>0</v>
       </c>
       <c r="J121" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
   </sheetData>
@@ -5656,24 +5661,24 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B2" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C2" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="B3" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="C3" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
     </row>
   </sheetData>
@@ -5695,8 +5700,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G121"/>
   <sheetViews>
-    <sheetView zoomScale="68" zoomScaleNormal="68" zoomScalePageLayoutView="68" workbookViewId="0">
-      <selection activeCell="I50" sqref="I50"/>
+    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
@@ -5732,22 +5737,22 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C2" t="s">
-        <v>166</v>
+        <v>306</v>
       </c>
       <c r="D2" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="E2" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="F2" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="G2" t="str">
         <f>CONCATENATE(A2,B2)</f>
@@ -5756,22 +5761,22 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C3" t="s">
-        <v>166</v>
+        <v>306</v>
       </c>
       <c r="D3" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="E3" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="F3" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="G3" t="str">
         <f t="shared" ref="G3:G66" si="0">CONCATENATE(A3,B3)</f>
@@ -5780,22 +5785,22 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C4" t="s">
-        <v>166</v>
+        <v>306</v>
       </c>
       <c r="D4" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="E4" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="F4" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="G4" t="str">
         <f t="shared" si="0"/>
@@ -5804,22 +5809,22 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B5" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C5" t="s">
-        <v>166</v>
+        <v>306</v>
       </c>
       <c r="D5" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="E5" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="F5" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="G5" t="str">
         <f t="shared" si="0"/>
@@ -5828,22 +5833,22 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B6" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C6" t="s">
-        <v>166</v>
+        <v>306</v>
       </c>
       <c r="D6" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="E6" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="F6" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="G6" t="str">
         <f t="shared" si="0"/>
@@ -5852,22 +5857,22 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B7" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C7" t="s">
-        <v>166</v>
+        <v>306</v>
       </c>
       <c r="D7" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="E7" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="F7" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="G7" t="str">
         <f t="shared" si="0"/>
@@ -5876,22 +5881,22 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B8" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C8" t="s">
-        <v>166</v>
+        <v>306</v>
       </c>
       <c r="D8" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="E8" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="F8" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="G8" t="str">
         <f t="shared" si="0"/>
@@ -5900,22 +5905,22 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B9" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C9" t="s">
-        <v>166</v>
+        <v>306</v>
       </c>
       <c r="D9" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="E9" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="F9" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="G9" t="str">
         <f t="shared" si="0"/>
@@ -5924,22 +5929,22 @@
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B10" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C10" t="s">
-        <v>166</v>
+        <v>306</v>
       </c>
       <c r="D10" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="E10" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="F10" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="G10" t="str">
         <f t="shared" si="0"/>
@@ -5948,22 +5953,22 @@
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B11" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C11" t="s">
-        <v>166</v>
+        <v>306</v>
       </c>
       <c r="D11" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="E11" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="F11" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="G11" t="str">
         <f t="shared" si="0"/>
@@ -5972,22 +5977,22 @@
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B12" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C12" t="s">
-        <v>166</v>
+        <v>306</v>
       </c>
       <c r="D12" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="E12" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="F12" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="G12" t="str">
         <f t="shared" si="0"/>
@@ -5996,22 +6001,22 @@
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B13" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C13" t="s">
-        <v>166</v>
+        <v>306</v>
       </c>
       <c r="D13" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="E13" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="F13" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="G13" t="str">
         <f t="shared" si="0"/>
@@ -6020,22 +6025,22 @@
     </row>
     <row r="14" spans="1:7">
       <c r="A14" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B14" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C14" t="s">
-        <v>166</v>
+        <v>306</v>
       </c>
       <c r="D14" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="E14" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="F14" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="G14" t="str">
         <f t="shared" si="0"/>
@@ -6044,22 +6049,22 @@
     </row>
     <row r="15" spans="1:7">
       <c r="A15" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B15" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C15" t="s">
-        <v>166</v>
+        <v>306</v>
       </c>
       <c r="D15" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="E15" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="F15" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="G15" t="str">
         <f t="shared" si="0"/>
@@ -6068,22 +6073,22 @@
     </row>
     <row r="16" spans="1:7">
       <c r="A16" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B16" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C16" t="s">
-        <v>166</v>
+        <v>306</v>
       </c>
       <c r="D16" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="E16" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="F16" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="G16" t="str">
         <f t="shared" si="0"/>
@@ -6092,22 +6097,22 @@
     </row>
     <row r="17" spans="1:7">
       <c r="A17" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B17" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C17" t="s">
-        <v>166</v>
+        <v>306</v>
       </c>
       <c r="D17" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="E17" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="F17" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="G17" t="str">
         <f t="shared" si="0"/>
@@ -6116,22 +6121,22 @@
     </row>
     <row r="18" spans="1:7">
       <c r="A18" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B18" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C18" t="s">
-        <v>166</v>
+        <v>306</v>
       </c>
       <c r="D18" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="E18" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="F18" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="G18" t="str">
         <f t="shared" si="0"/>
@@ -6140,22 +6145,22 @@
     </row>
     <row r="19" spans="1:7">
       <c r="A19" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B19" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C19" t="s">
-        <v>166</v>
+        <v>306</v>
       </c>
       <c r="D19" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="E19" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="F19" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="G19" t="str">
         <f t="shared" si="0"/>
@@ -6164,22 +6169,22 @@
     </row>
     <row r="20" spans="1:7">
       <c r="A20" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B20" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C20" t="s">
-        <v>166</v>
+        <v>306</v>
       </c>
       <c r="D20" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="E20" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="F20" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="G20" t="str">
         <f t="shared" si="0"/>
@@ -6188,22 +6193,22 @@
     </row>
     <row r="21" spans="1:7">
       <c r="A21" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B21" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C21" t="s">
-        <v>166</v>
+        <v>306</v>
       </c>
       <c r="D21" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="E21" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="F21" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="G21" t="str">
         <f t="shared" si="0"/>
@@ -6212,22 +6217,22 @@
     </row>
     <row r="22" spans="1:7">
       <c r="A22" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B22" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C22" t="s">
-        <v>166</v>
+        <v>306</v>
       </c>
       <c r="D22" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="E22" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="F22" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="G22" t="str">
         <f t="shared" si="0"/>
@@ -6236,22 +6241,22 @@
     </row>
     <row r="23" spans="1:7">
       <c r="A23" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B23" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C23" t="s">
-        <v>166</v>
+        <v>306</v>
       </c>
       <c r="D23" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="E23" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="F23" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="G23" t="str">
         <f t="shared" si="0"/>
@@ -6260,22 +6265,22 @@
     </row>
     <row r="24" spans="1:7">
       <c r="A24" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B24" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C24" t="s">
-        <v>166</v>
+        <v>306</v>
       </c>
       <c r="D24" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="E24" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="F24" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="G24" t="str">
         <f t="shared" si="0"/>
@@ -6284,22 +6289,22 @@
     </row>
     <row r="25" spans="1:7">
       <c r="A25" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B25" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C25" t="s">
-        <v>166</v>
+        <v>306</v>
       </c>
       <c r="D25" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="E25" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="F25" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="G25" t="str">
         <f t="shared" si="0"/>
@@ -6308,22 +6313,22 @@
     </row>
     <row r="26" spans="1:7">
       <c r="A26" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B26" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C26" t="s">
-        <v>166</v>
+        <v>306</v>
       </c>
       <c r="D26" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="E26" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="F26" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="G26" t="str">
         <f t="shared" si="0"/>
@@ -6332,22 +6337,22 @@
     </row>
     <row r="27" spans="1:7">
       <c r="A27" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B27" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C27" t="s">
-        <v>166</v>
+        <v>306</v>
       </c>
       <c r="D27" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="E27" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="F27" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="G27" t="str">
         <f t="shared" si="0"/>
@@ -6356,22 +6361,22 @@
     </row>
     <row r="28" spans="1:7">
       <c r="A28" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B28" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C28" t="s">
-        <v>166</v>
+        <v>306</v>
       </c>
       <c r="D28" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="E28" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="F28" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="G28" t="str">
         <f t="shared" si="0"/>
@@ -6380,22 +6385,22 @@
     </row>
     <row r="29" spans="1:7">
       <c r="A29" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B29" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C29" t="s">
-        <v>166</v>
+        <v>306</v>
       </c>
       <c r="D29" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="E29" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="F29" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="G29" t="str">
         <f t="shared" si="0"/>
@@ -6404,22 +6409,22 @@
     </row>
     <row r="30" spans="1:7">
       <c r="A30" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B30" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C30" t="s">
-        <v>166</v>
+        <v>306</v>
       </c>
       <c r="D30" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="E30" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="F30" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="G30" t="str">
         <f t="shared" si="0"/>
@@ -6428,22 +6433,22 @@
     </row>
     <row r="31" spans="1:7">
       <c r="A31" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B31" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C31" t="s">
-        <v>166</v>
+        <v>306</v>
       </c>
       <c r="D31" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="E31" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="F31" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="G31" t="str">
         <f t="shared" si="0"/>
@@ -6452,22 +6457,22 @@
     </row>
     <row r="32" spans="1:7">
       <c r="A32" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B32" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C32" t="s">
-        <v>166</v>
+        <v>306</v>
       </c>
       <c r="D32" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="E32" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="F32" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="G32" t="str">
         <f t="shared" si="0"/>
@@ -6476,22 +6481,22 @@
     </row>
     <row r="33" spans="1:7">
       <c r="A33" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B33" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C33" t="s">
-        <v>166</v>
+        <v>306</v>
       </c>
       <c r="D33" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="E33" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="F33" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="G33" t="str">
         <f t="shared" si="0"/>
@@ -6500,22 +6505,22 @@
     </row>
     <row r="34" spans="1:7">
       <c r="A34" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B34" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C34" t="s">
-        <v>166</v>
+        <v>306</v>
       </c>
       <c r="D34" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="E34" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="F34" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="G34" t="str">
         <f t="shared" si="0"/>
@@ -6524,22 +6529,22 @@
     </row>
     <row r="35" spans="1:7">
       <c r="A35" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B35" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C35" t="s">
-        <v>166</v>
+        <v>306</v>
       </c>
       <c r="D35" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="E35" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="F35" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="G35" t="str">
         <f t="shared" si="0"/>
@@ -6548,22 +6553,22 @@
     </row>
     <row r="36" spans="1:7">
       <c r="A36" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B36" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C36" t="s">
-        <v>166</v>
+        <v>306</v>
       </c>
       <c r="D36" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="E36" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="F36" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="G36" t="str">
         <f t="shared" si="0"/>
@@ -6572,22 +6577,22 @@
     </row>
     <row r="37" spans="1:7">
       <c r="A37" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B37" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C37" t="s">
-        <v>166</v>
+        <v>306</v>
       </c>
       <c r="D37" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="E37" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="F37" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="G37" t="str">
         <f t="shared" si="0"/>
@@ -6596,22 +6601,22 @@
     </row>
     <row r="38" spans="1:7">
       <c r="A38" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B38" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C38" t="s">
-        <v>166</v>
+        <v>306</v>
       </c>
       <c r="D38" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="E38" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="F38" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="G38" t="str">
         <f t="shared" si="0"/>
@@ -6620,22 +6625,22 @@
     </row>
     <row r="39" spans="1:7">
       <c r="A39" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B39" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C39" t="s">
-        <v>166</v>
+        <v>306</v>
       </c>
       <c r="D39" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="E39" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="F39" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="G39" t="str">
         <f t="shared" si="0"/>
@@ -6644,22 +6649,22 @@
     </row>
     <row r="40" spans="1:7">
       <c r="A40" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B40" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C40" t="s">
-        <v>166</v>
+        <v>306</v>
       </c>
       <c r="D40" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="E40" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="F40" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="G40" t="str">
         <f t="shared" si="0"/>
@@ -6668,22 +6673,22 @@
     </row>
     <row r="41" spans="1:7">
       <c r="A41" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B41" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C41" t="s">
-        <v>166</v>
+        <v>306</v>
       </c>
       <c r="D41" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="E41" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="F41" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="G41" t="str">
         <f t="shared" si="0"/>
@@ -6692,22 +6697,22 @@
     </row>
     <row r="42" spans="1:7">
       <c r="A42" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B42" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C42" t="s">
-        <v>166</v>
+        <v>306</v>
       </c>
       <c r="D42" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="E42" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="F42" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="G42" t="str">
         <f t="shared" si="0"/>
@@ -6716,22 +6721,22 @@
     </row>
     <row r="43" spans="1:7">
       <c r="A43" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B43" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C43" t="s">
-        <v>166</v>
+        <v>306</v>
       </c>
       <c r="D43" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="E43" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="F43" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="G43" t="str">
         <f t="shared" si="0"/>
@@ -6740,22 +6745,22 @@
     </row>
     <row r="44" spans="1:7">
       <c r="A44" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B44" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C44" t="s">
-        <v>166</v>
+        <v>306</v>
       </c>
       <c r="D44" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="E44" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="F44" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="G44" t="str">
         <f t="shared" si="0"/>
@@ -6764,22 +6769,22 @@
     </row>
     <row r="45" spans="1:7">
       <c r="A45" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B45" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C45" t="s">
-        <v>166</v>
+        <v>306</v>
       </c>
       <c r="D45" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="E45" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="F45" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="G45" t="str">
         <f t="shared" si="0"/>
@@ -6788,22 +6793,22 @@
     </row>
     <row r="46" spans="1:7">
       <c r="A46" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B46" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C46" t="s">
-        <v>166</v>
+        <v>306</v>
       </c>
       <c r="D46" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="E46" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="F46" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="G46" t="str">
         <f t="shared" si="0"/>
@@ -6812,22 +6817,22 @@
     </row>
     <row r="47" spans="1:7">
       <c r="A47" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B47" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C47" t="s">
-        <v>166</v>
+        <v>306</v>
       </c>
       <c r="D47" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="E47" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="F47" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="G47" t="str">
         <f t="shared" si="0"/>
@@ -6836,22 +6841,22 @@
     </row>
     <row r="48" spans="1:7">
       <c r="A48" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B48" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C48" t="s">
-        <v>166</v>
+        <v>306</v>
       </c>
       <c r="D48" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="E48" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="F48" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="G48" t="str">
         <f t="shared" si="0"/>
@@ -6860,22 +6865,22 @@
     </row>
     <row r="49" spans="1:7">
       <c r="A49" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B49" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C49" t="s">
-        <v>166</v>
+        <v>306</v>
       </c>
       <c r="D49" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="E49" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="F49" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="G49" t="str">
         <f t="shared" si="0"/>
@@ -6884,22 +6889,22 @@
     </row>
     <row r="50" spans="1:7">
       <c r="A50" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B50" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C50" t="s">
-        <v>166</v>
+        <v>306</v>
       </c>
       <c r="D50" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="E50" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="F50" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="G50" t="str">
         <f t="shared" si="0"/>
@@ -6908,22 +6913,22 @@
     </row>
     <row r="51" spans="1:7">
       <c r="A51" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B51" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C51" t="s">
-        <v>166</v>
+        <v>306</v>
       </c>
       <c r="D51" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="E51" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="F51" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="G51" t="str">
         <f t="shared" si="0"/>
@@ -6932,22 +6937,22 @@
     </row>
     <row r="52" spans="1:7">
       <c r="A52" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B52" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C52" t="s">
-        <v>166</v>
+        <v>306</v>
       </c>
       <c r="D52" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="E52" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="F52" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="G52" t="str">
         <f t="shared" si="0"/>
@@ -6956,22 +6961,22 @@
     </row>
     <row r="53" spans="1:7">
       <c r="A53" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B53" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C53" t="s">
-        <v>166</v>
+        <v>306</v>
       </c>
       <c r="D53" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="E53" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="F53" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="G53" t="str">
         <f t="shared" si="0"/>
@@ -6980,22 +6985,22 @@
     </row>
     <row r="54" spans="1:7">
       <c r="A54" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B54" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C54" t="s">
-        <v>166</v>
+        <v>306</v>
       </c>
       <c r="D54" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="E54" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="F54" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="G54" t="str">
         <f t="shared" si="0"/>
@@ -7004,22 +7009,22 @@
     </row>
     <row r="55" spans="1:7">
       <c r="A55" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B55" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C55" t="s">
-        <v>166</v>
+        <v>306</v>
       </c>
       <c r="D55" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="E55" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="F55" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="G55" t="str">
         <f t="shared" si="0"/>
@@ -7028,22 +7033,22 @@
     </row>
     <row r="56" spans="1:7">
       <c r="A56" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B56" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C56" t="s">
-        <v>166</v>
+        <v>306</v>
       </c>
       <c r="D56" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="E56" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="F56" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="G56" t="str">
         <f t="shared" si="0"/>
@@ -7052,22 +7057,22 @@
     </row>
     <row r="57" spans="1:7">
       <c r="A57" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B57" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C57" t="s">
-        <v>166</v>
+        <v>306</v>
       </c>
       <c r="D57" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="E57" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="F57" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="G57" t="str">
         <f t="shared" si="0"/>
@@ -7076,22 +7081,22 @@
     </row>
     <row r="58" spans="1:7">
       <c r="A58" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B58" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C58" t="s">
-        <v>166</v>
+        <v>306</v>
       </c>
       <c r="D58" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="E58" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="F58" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="G58" t="str">
         <f t="shared" si="0"/>
@@ -7100,22 +7105,22 @@
     </row>
     <row r="59" spans="1:7">
       <c r="A59" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B59" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C59" t="s">
-        <v>166</v>
+        <v>306</v>
       </c>
       <c r="D59" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="E59" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="F59" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="G59" t="str">
         <f t="shared" si="0"/>
@@ -7124,22 +7129,22 @@
     </row>
     <row r="60" spans="1:7">
       <c r="A60" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B60" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C60" t="s">
-        <v>166</v>
+        <v>306</v>
       </c>
       <c r="D60" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="E60" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="F60" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="G60" t="str">
         <f t="shared" si="0"/>
@@ -7148,22 +7153,22 @@
     </row>
     <row r="61" spans="1:7">
       <c r="A61" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B61" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C61" t="s">
-        <v>166</v>
+        <v>306</v>
       </c>
       <c r="D61" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="E61" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="F61" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="G61" t="str">
         <f t="shared" si="0"/>
@@ -7172,22 +7177,22 @@
     </row>
     <row r="62" spans="1:7">
       <c r="A62" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B62" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C62" t="s">
-        <v>166</v>
+        <v>306</v>
       </c>
       <c r="D62" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="E62" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="F62" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="G62" t="str">
         <f t="shared" si="0"/>
@@ -7196,22 +7201,22 @@
     </row>
     <row r="63" spans="1:7">
       <c r="A63" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B63" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C63" t="s">
-        <v>166</v>
+        <v>306</v>
       </c>
       <c r="D63" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="E63" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="F63" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="G63" t="str">
         <f t="shared" si="0"/>
@@ -7220,22 +7225,22 @@
     </row>
     <row r="64" spans="1:7">
       <c r="A64" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B64" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C64" t="s">
-        <v>166</v>
+        <v>306</v>
       </c>
       <c r="D64" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="E64" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="F64" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="G64" t="str">
         <f t="shared" si="0"/>
@@ -7244,22 +7249,22 @@
     </row>
     <row r="65" spans="1:7">
       <c r="A65" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B65" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C65" t="s">
-        <v>166</v>
+        <v>306</v>
       </c>
       <c r="D65" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="E65" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="F65" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="G65" t="str">
         <f t="shared" si="0"/>
@@ -7268,22 +7273,22 @@
     </row>
     <row r="66" spans="1:7">
       <c r="A66" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B66" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C66" t="s">
-        <v>166</v>
+        <v>306</v>
       </c>
       <c r="D66" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="E66" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="F66" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="G66" t="str">
         <f t="shared" si="0"/>
@@ -7292,22 +7297,22 @@
     </row>
     <row r="67" spans="1:7">
       <c r="A67" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B67" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C67" t="s">
-        <v>166</v>
+        <v>306</v>
       </c>
       <c r="D67" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="E67" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="F67" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="G67" t="str">
         <f t="shared" ref="G67:G121" si="1">CONCATENATE(A67,B67)</f>
@@ -7316,22 +7321,22 @@
     </row>
     <row r="68" spans="1:7">
       <c r="A68" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B68" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C68" t="s">
-        <v>166</v>
+        <v>306</v>
       </c>
       <c r="D68" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="E68" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="F68" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="G68" t="str">
         <f t="shared" si="1"/>
@@ -7340,22 +7345,22 @@
     </row>
     <row r="69" spans="1:7">
       <c r="A69" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B69" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C69" t="s">
-        <v>166</v>
+        <v>306</v>
       </c>
       <c r="D69" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="E69" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="F69" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="G69" t="str">
         <f t="shared" si="1"/>
@@ -7364,22 +7369,22 @@
     </row>
     <row r="70" spans="1:7">
       <c r="A70" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B70" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C70" t="s">
-        <v>166</v>
+        <v>306</v>
       </c>
       <c r="D70" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="E70" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="F70" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="G70" t="str">
         <f t="shared" si="1"/>
@@ -7388,22 +7393,22 @@
     </row>
     <row r="71" spans="1:7">
       <c r="A71" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B71" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C71" t="s">
-        <v>166</v>
+        <v>306</v>
       </c>
       <c r="D71" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="E71" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="F71" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="G71" t="str">
         <f t="shared" si="1"/>
@@ -7412,22 +7417,22 @@
     </row>
     <row r="72" spans="1:7">
       <c r="A72" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B72" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C72" t="s">
-        <v>166</v>
+        <v>306</v>
       </c>
       <c r="D72" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="E72" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="F72" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="G72" t="str">
         <f t="shared" si="1"/>
@@ -7436,22 +7441,22 @@
     </row>
     <row r="73" spans="1:7">
       <c r="A73" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B73" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C73" t="s">
-        <v>166</v>
+        <v>306</v>
       </c>
       <c r="D73" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="E73" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="F73" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="G73" t="str">
         <f t="shared" si="1"/>
@@ -7460,22 +7465,22 @@
     </row>
     <row r="74" spans="1:7">
       <c r="A74" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B74" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C74" t="s">
-        <v>166</v>
+        <v>306</v>
       </c>
       <c r="D74" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="E74" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="F74" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="G74" t="str">
         <f t="shared" si="1"/>
@@ -7484,22 +7489,22 @@
     </row>
     <row r="75" spans="1:7">
       <c r="A75" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B75" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C75" t="s">
-        <v>166</v>
+        <v>306</v>
       </c>
       <c r="D75" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="E75" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="F75" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="G75" t="str">
         <f t="shared" si="1"/>
@@ -7508,22 +7513,22 @@
     </row>
     <row r="76" spans="1:7">
       <c r="A76" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B76" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C76" t="s">
-        <v>166</v>
+        <v>306</v>
       </c>
       <c r="D76" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="E76" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="F76" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="G76" t="str">
         <f t="shared" si="1"/>
@@ -7532,22 +7537,22 @@
     </row>
     <row r="77" spans="1:7">
       <c r="A77" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B77" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C77" t="s">
-        <v>166</v>
+        <v>306</v>
       </c>
       <c r="D77" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="E77" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="F77" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="G77" t="str">
         <f t="shared" si="1"/>
@@ -7556,22 +7561,22 @@
     </row>
     <row r="78" spans="1:7">
       <c r="A78" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B78" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C78" t="s">
-        <v>166</v>
+        <v>306</v>
       </c>
       <c r="D78" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="E78" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="F78" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="G78" t="str">
         <f t="shared" si="1"/>
@@ -7580,22 +7585,22 @@
     </row>
     <row r="79" spans="1:7">
       <c r="A79" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B79" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C79" t="s">
-        <v>166</v>
+        <v>306</v>
       </c>
       <c r="D79" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="E79" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="F79" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="G79" t="str">
         <f t="shared" si="1"/>
@@ -7604,22 +7609,22 @@
     </row>
     <row r="80" spans="1:7">
       <c r="A80" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B80" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C80" t="s">
-        <v>166</v>
+        <v>306</v>
       </c>
       <c r="D80" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="E80" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="F80" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="G80" t="str">
         <f t="shared" si="1"/>
@@ -7628,22 +7633,22 @@
     </row>
     <row r="81" spans="1:7">
       <c r="A81" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B81" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C81" t="s">
-        <v>166</v>
+        <v>306</v>
       </c>
       <c r="D81" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="E81" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="F81" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="G81" t="str">
         <f t="shared" si="1"/>
@@ -7652,22 +7657,22 @@
     </row>
     <row r="82" spans="1:7">
       <c r="A82" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B82" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C82" t="s">
-        <v>166</v>
+        <v>306</v>
       </c>
       <c r="D82" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="E82" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="F82" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="G82" t="str">
         <f t="shared" si="1"/>
@@ -7676,22 +7681,22 @@
     </row>
     <row r="83" spans="1:7">
       <c r="A83" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B83" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C83" t="s">
-        <v>166</v>
+        <v>306</v>
       </c>
       <c r="D83" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="E83" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="F83" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="G83" t="str">
         <f t="shared" si="1"/>
@@ -7700,22 +7705,22 @@
     </row>
     <row r="84" spans="1:7">
       <c r="A84" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B84" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C84" t="s">
-        <v>166</v>
+        <v>306</v>
       </c>
       <c r="D84" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="E84" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="F84" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="G84" t="str">
         <f t="shared" si="1"/>
@@ -7724,22 +7729,22 @@
     </row>
     <row r="85" spans="1:7">
       <c r="A85" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B85" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C85" t="s">
-        <v>166</v>
+        <v>306</v>
       </c>
       <c r="D85" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="E85" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="F85" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="G85" t="str">
         <f t="shared" si="1"/>
@@ -7748,22 +7753,22 @@
     </row>
     <row r="86" spans="1:7">
       <c r="A86" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B86" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C86" t="s">
-        <v>166</v>
+        <v>306</v>
       </c>
       <c r="D86" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="E86" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="F86" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="G86" t="str">
         <f t="shared" si="1"/>
@@ -7772,22 +7777,22 @@
     </row>
     <row r="87" spans="1:7">
       <c r="A87" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B87" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C87" t="s">
-        <v>166</v>
+        <v>306</v>
       </c>
       <c r="D87" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="E87" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="F87" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="G87" t="str">
         <f t="shared" si="1"/>
@@ -7796,22 +7801,22 @@
     </row>
     <row r="88" spans="1:7">
       <c r="A88" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B88" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C88" t="s">
-        <v>166</v>
+        <v>306</v>
       </c>
       <c r="D88" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="E88" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="F88" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="G88" t="str">
         <f t="shared" si="1"/>
@@ -7820,22 +7825,22 @@
     </row>
     <row r="89" spans="1:7">
       <c r="A89" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B89" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C89" t="s">
-        <v>166</v>
+        <v>306</v>
       </c>
       <c r="D89" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="E89" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="F89" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="G89" t="str">
         <f t="shared" si="1"/>
@@ -7844,22 +7849,22 @@
     </row>
     <row r="90" spans="1:7">
       <c r="A90" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B90" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C90" t="s">
-        <v>166</v>
+        <v>306</v>
       </c>
       <c r="D90" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="E90" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="F90" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="G90" t="str">
         <f t="shared" si="1"/>
@@ -7868,22 +7873,22 @@
     </row>
     <row r="91" spans="1:7">
       <c r="A91" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B91" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C91" t="s">
-        <v>166</v>
+        <v>306</v>
       </c>
       <c r="D91" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="E91" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="F91" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="G91" t="str">
         <f t="shared" si="1"/>
@@ -7892,22 +7897,22 @@
     </row>
     <row r="92" spans="1:7">
       <c r="A92" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B92" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C92" t="s">
-        <v>166</v>
+        <v>306</v>
       </c>
       <c r="D92" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="E92" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="F92" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="G92" t="str">
         <f t="shared" si="1"/>
@@ -7916,22 +7921,22 @@
     </row>
     <row r="93" spans="1:7">
       <c r="A93" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B93" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C93" t="s">
-        <v>166</v>
+        <v>306</v>
       </c>
       <c r="D93" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="E93" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="F93" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="G93" t="str">
         <f t="shared" si="1"/>
@@ -7940,22 +7945,22 @@
     </row>
     <row r="94" spans="1:7">
       <c r="A94" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B94" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C94" t="s">
-        <v>166</v>
+        <v>306</v>
       </c>
       <c r="D94" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="E94" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="F94" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="G94" t="str">
         <f t="shared" si="1"/>
@@ -7964,22 +7969,22 @@
     </row>
     <row r="95" spans="1:7">
       <c r="A95" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B95" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C95" t="s">
-        <v>166</v>
+        <v>306</v>
       </c>
       <c r="D95" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="E95" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="F95" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="G95" t="str">
         <f t="shared" si="1"/>
@@ -7988,22 +7993,22 @@
     </row>
     <row r="96" spans="1:7">
       <c r="A96" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B96" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C96" t="s">
-        <v>166</v>
+        <v>306</v>
       </c>
       <c r="D96" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="E96" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="F96" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="G96" t="str">
         <f t="shared" si="1"/>
@@ -8012,22 +8017,22 @@
     </row>
     <row r="97" spans="1:7">
       <c r="A97" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B97" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C97" t="s">
-        <v>166</v>
+        <v>306</v>
       </c>
       <c r="D97" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="E97" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="F97" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="G97" t="str">
         <f t="shared" si="1"/>
@@ -8036,22 +8041,22 @@
     </row>
     <row r="98" spans="1:7">
       <c r="A98" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="B98" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C98" t="s">
-        <v>166</v>
+        <v>306</v>
       </c>
       <c r="D98" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="E98" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="F98" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="G98" t="str">
         <f t="shared" si="1"/>
@@ -8060,22 +8065,22 @@
     </row>
     <row r="99" spans="1:7">
       <c r="A99" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="B99" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C99" t="s">
-        <v>166</v>
+        <v>306</v>
       </c>
       <c r="D99" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="E99" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="F99" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="G99" t="str">
         <f t="shared" si="1"/>
@@ -8084,22 +8089,22 @@
     </row>
     <row r="100" spans="1:7">
       <c r="A100" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="B100" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C100" t="s">
-        <v>166</v>
+        <v>306</v>
       </c>
       <c r="D100" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="E100" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="F100" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="G100" t="str">
         <f t="shared" si="1"/>
@@ -8108,22 +8113,22 @@
     </row>
     <row r="101" spans="1:7">
       <c r="A101" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="B101" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C101" t="s">
-        <v>166</v>
+        <v>306</v>
       </c>
       <c r="D101" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="E101" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="F101" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="G101" t="str">
         <f t="shared" si="1"/>
@@ -8132,22 +8137,22 @@
     </row>
     <row r="102" spans="1:7">
       <c r="A102" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="B102" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C102" t="s">
-        <v>166</v>
+        <v>306</v>
       </c>
       <c r="D102" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="E102" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="F102" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="G102" t="str">
         <f t="shared" si="1"/>
@@ -8156,22 +8161,22 @@
     </row>
     <row r="103" spans="1:7">
       <c r="A103" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="B103" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C103" t="s">
-        <v>166</v>
+        <v>306</v>
       </c>
       <c r="D103" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="E103" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="F103" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="G103" t="str">
         <f t="shared" si="1"/>
@@ -8180,22 +8185,22 @@
     </row>
     <row r="104" spans="1:7">
       <c r="A104" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="B104" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C104" t="s">
-        <v>166</v>
+        <v>306</v>
       </c>
       <c r="D104" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="E104" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="F104" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="G104" t="str">
         <f t="shared" si="1"/>
@@ -8204,22 +8209,22 @@
     </row>
     <row r="105" spans="1:7">
       <c r="A105" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="B105" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C105" t="s">
-        <v>166</v>
+        <v>306</v>
       </c>
       <c r="D105" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="E105" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="F105" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="G105" t="str">
         <f t="shared" si="1"/>
@@ -8228,22 +8233,22 @@
     </row>
     <row r="106" spans="1:7">
       <c r="A106" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="B106" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C106" t="s">
-        <v>166</v>
+        <v>306</v>
       </c>
       <c r="D106" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="E106" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="F106" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="G106" t="str">
         <f t="shared" si="1"/>
@@ -8252,22 +8257,22 @@
     </row>
     <row r="107" spans="1:7">
       <c r="A107" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="B107" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C107" t="s">
-        <v>166</v>
+        <v>306</v>
       </c>
       <c r="D107" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="E107" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="F107" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="G107" t="str">
         <f t="shared" si="1"/>
@@ -8276,22 +8281,22 @@
     </row>
     <row r="108" spans="1:7">
       <c r="A108" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="B108" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C108" t="s">
-        <v>166</v>
+        <v>306</v>
       </c>
       <c r="D108" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="E108" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="F108" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="G108" t="str">
         <f t="shared" si="1"/>
@@ -8300,22 +8305,22 @@
     </row>
     <row r="109" spans="1:7">
       <c r="A109" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="B109" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C109" t="s">
-        <v>166</v>
+        <v>306</v>
       </c>
       <c r="D109" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="E109" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="F109" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="G109" t="str">
         <f t="shared" si="1"/>
@@ -8324,22 +8329,22 @@
     </row>
     <row r="110" spans="1:7">
       <c r="A110" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="B110" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C110" t="s">
-        <v>166</v>
+        <v>306</v>
       </c>
       <c r="D110" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="E110" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="F110" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="G110" t="str">
         <f t="shared" si="1"/>
@@ -8348,22 +8353,22 @@
     </row>
     <row r="111" spans="1:7">
       <c r="A111" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="B111" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C111" t="s">
-        <v>166</v>
+        <v>306</v>
       </c>
       <c r="D111" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="E111" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="F111" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="G111" t="str">
         <f t="shared" si="1"/>
@@ -8372,22 +8377,22 @@
     </row>
     <row r="112" spans="1:7">
       <c r="A112" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="B112" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C112" t="s">
-        <v>166</v>
+        <v>306</v>
       </c>
       <c r="D112" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="E112" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="F112" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="G112" t="str">
         <f t="shared" si="1"/>
@@ -8396,22 +8401,22 @@
     </row>
     <row r="113" spans="1:7">
       <c r="A113" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="B113" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C113" t="s">
-        <v>166</v>
+        <v>306</v>
       </c>
       <c r="D113" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="E113" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="F113" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="G113" t="str">
         <f t="shared" si="1"/>
@@ -8420,22 +8425,22 @@
     </row>
     <row r="114" spans="1:7">
       <c r="A114" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="B114" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C114" t="s">
-        <v>166</v>
+        <v>306</v>
       </c>
       <c r="D114" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="E114" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="F114" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="G114" t="str">
         <f t="shared" si="1"/>
@@ -8444,22 +8449,22 @@
     </row>
     <row r="115" spans="1:7">
       <c r="A115" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="B115" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C115" t="s">
-        <v>166</v>
+        <v>306</v>
       </c>
       <c r="D115" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="E115" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="F115" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="G115" t="str">
         <f t="shared" si="1"/>
@@ -8468,22 +8473,22 @@
     </row>
     <row r="116" spans="1:7">
       <c r="A116" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="B116" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C116" t="s">
-        <v>166</v>
+        <v>306</v>
       </c>
       <c r="D116" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="E116" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="F116" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="G116" t="str">
         <f t="shared" si="1"/>
@@ -8492,22 +8497,22 @@
     </row>
     <row r="117" spans="1:7">
       <c r="A117" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="B117" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C117" t="s">
-        <v>166</v>
+        <v>306</v>
       </c>
       <c r="D117" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="E117" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="F117" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="G117" t="str">
         <f t="shared" si="1"/>
@@ -8516,22 +8521,22 @@
     </row>
     <row r="118" spans="1:7">
       <c r="A118" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="B118" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C118" t="s">
-        <v>166</v>
+        <v>306</v>
       </c>
       <c r="D118" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="E118" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="F118" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="G118" t="str">
         <f t="shared" si="1"/>
@@ -8540,22 +8545,22 @@
     </row>
     <row r="119" spans="1:7">
       <c r="A119" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="B119" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C119" t="s">
-        <v>166</v>
+        <v>306</v>
       </c>
       <c r="D119" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="E119" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="F119" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="G119" t="str">
         <f t="shared" si="1"/>
@@ -8564,22 +8569,22 @@
     </row>
     <row r="120" spans="1:7">
       <c r="A120" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="B120" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C120" t="s">
-        <v>166</v>
+        <v>306</v>
       </c>
       <c r="D120" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="E120" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="F120" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="G120" t="str">
         <f t="shared" si="1"/>
@@ -8588,22 +8593,22 @@
     </row>
     <row r="121" spans="1:7">
       <c r="A121" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="B121" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C121" t="s">
-        <v>166</v>
+        <v>306</v>
       </c>
       <c r="D121" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="E121" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="F121" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="G121" t="str">
         <f t="shared" si="1"/>

--- a/data/GEP00007/GEP00007_ARID1A.xlsx
+++ b/data/GEP00007/GEP00007_ARID1A.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="28705"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28280" windowHeight="17300" tabRatio="500" firstSheet="1" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28280" windowHeight="17300" tabRatio="500" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Project" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
     <sheet name="Plate" sheetId="7" r:id="rId7"/>
     <sheet name="SequencingLibrary" sheetId="8" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="140001" iterateDelta="1E-4" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -946,10 +946,10 @@
     <t>forward</t>
   </si>
   <si>
-    <t>GRCh37.p13</t>
-  </si>
-  <si>
     <t>non-fixed cells</t>
+  </si>
+  <si>
+    <t>GRCh38.p7</t>
   </si>
 </sst>
 </file>
@@ -1028,14 +1028,13 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" readingOrder="1"/>
@@ -1320,7 +1319,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1390,7 +1389,7 @@
       <c r="F2" t="s">
         <v>57</v>
       </c>
-      <c r="G2" s="8">
+      <c r="G2" s="7">
         <v>20170803</v>
       </c>
       <c r="H2" t="s">
@@ -1422,7 +1421,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
@@ -1475,8 +1474,8 @@
       <c r="C2" t="s">
         <v>60</v>
       </c>
-      <c r="D2" s="4" t="s">
-        <v>305</v>
+      <c r="D2" t="s">
+        <v>306</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>169</v>
@@ -1498,7 +1497,7 @@
       </c>
     </row>
     <row r="3" spans="1:10">
-      <c r="G3" s="5"/>
+      <c r="G3" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0249999999999999" bottom="1.0249999999999999" header="0.78749999999999998" footer="0.78749999999999998"/>
@@ -1561,7 +1560,7 @@
       <c r="B2" t="s">
         <v>171</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="5" t="s">
         <v>174</v>
       </c>
       <c r="D2" t="s">
@@ -1584,7 +1583,7 @@
       <c r="B3" t="s">
         <v>172</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="5" t="s">
         <v>175</v>
       </c>
       <c r="D3" t="s">
@@ -1763,13 +1762,13 @@
       <c r="I2">
         <v>346</v>
       </c>
-      <c r="J2" s="7" t="s">
+      <c r="J2" s="6" t="s">
         <v>177</v>
       </c>
       <c r="K2" s="2">
         <v>26729676</v>
       </c>
-      <c r="L2" s="7">
+      <c r="L2" s="6">
         <v>26729695</v>
       </c>
       <c r="M2">
@@ -1778,10 +1777,10 @@
       <c r="N2" t="s">
         <v>178</v>
       </c>
-      <c r="O2" s="7">
+      <c r="O2" s="6">
         <v>26729886</v>
       </c>
-      <c r="P2" s="7">
+      <c r="P2" s="6">
         <v>26729905</v>
       </c>
       <c r="Q2" t="s">
@@ -1820,7 +1819,7 @@
       <c r="K3">
         <v>26729676</v>
       </c>
-      <c r="L3" s="7">
+      <c r="L3" s="6">
         <v>26729695</v>
       </c>
       <c r="M3">
@@ -1829,10 +1828,10 @@
       <c r="N3" t="s">
         <v>178</v>
       </c>
-      <c r="O3" s="7">
+      <c r="O3" s="6">
         <v>26729886</v>
       </c>
-      <c r="P3" s="7">
+      <c r="P3" s="6">
         <v>26729905</v>
       </c>
       <c r="Q3" t="s">
@@ -5700,7 +5699,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G121"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
+    <sheetView topLeftCell="A73" workbookViewId="0">
       <selection activeCell="C2" sqref="C2:C121"/>
     </sheetView>
   </sheetViews>
@@ -5743,7 +5742,7 @@
         <v>64</v>
       </c>
       <c r="C2" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D2" t="s">
         <v>303</v>
@@ -5767,7 +5766,7 @@
         <v>76</v>
       </c>
       <c r="C3" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D3" t="s">
         <v>303</v>
@@ -5791,7 +5790,7 @@
         <v>88</v>
       </c>
       <c r="C4" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D4" t="s">
         <v>303</v>
@@ -5815,7 +5814,7 @@
         <v>100</v>
       </c>
       <c r="C5" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D5" t="s">
         <v>303</v>
@@ -5839,7 +5838,7 @@
         <v>112</v>
       </c>
       <c r="C6" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D6" t="s">
         <v>303</v>
@@ -5863,7 +5862,7 @@
         <v>124</v>
       </c>
       <c r="C7" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D7" t="s">
         <v>303</v>
@@ -5887,7 +5886,7 @@
         <v>136</v>
       </c>
       <c r="C8" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D8" t="s">
         <v>303</v>
@@ -5911,7 +5910,7 @@
         <v>148</v>
       </c>
       <c r="C9" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D9" t="s">
         <v>303</v>
@@ -5935,7 +5934,7 @@
         <v>65</v>
       </c>
       <c r="C10" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D10" t="s">
         <v>303</v>
@@ -5959,7 +5958,7 @@
         <v>77</v>
       </c>
       <c r="C11" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D11" t="s">
         <v>303</v>
@@ -5983,7 +5982,7 @@
         <v>89</v>
       </c>
       <c r="C12" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D12" t="s">
         <v>303</v>
@@ -6007,7 +6006,7 @@
         <v>101</v>
       </c>
       <c r="C13" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D13" t="s">
         <v>303</v>
@@ -6031,7 +6030,7 @@
         <v>113</v>
       </c>
       <c r="C14" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D14" t="s">
         <v>303</v>
@@ -6055,7 +6054,7 @@
         <v>125</v>
       </c>
       <c r="C15" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D15" t="s">
         <v>303</v>
@@ -6079,7 +6078,7 @@
         <v>137</v>
       </c>
       <c r="C16" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D16" t="s">
         <v>303</v>
@@ -6103,7 +6102,7 @@
         <v>149</v>
       </c>
       <c r="C17" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D17" t="s">
         <v>303</v>
@@ -6127,7 +6126,7 @@
         <v>66</v>
       </c>
       <c r="C18" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D18" t="s">
         <v>303</v>
@@ -6151,7 +6150,7 @@
         <v>78</v>
       </c>
       <c r="C19" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D19" t="s">
         <v>303</v>
@@ -6175,7 +6174,7 @@
         <v>90</v>
       </c>
       <c r="C20" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D20" t="s">
         <v>303</v>
@@ -6199,7 +6198,7 @@
         <v>102</v>
       </c>
       <c r="C21" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D21" t="s">
         <v>303</v>
@@ -6223,7 +6222,7 @@
         <v>114</v>
       </c>
       <c r="C22" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D22" t="s">
         <v>303</v>
@@ -6247,7 +6246,7 @@
         <v>126</v>
       </c>
       <c r="C23" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D23" t="s">
         <v>303</v>
@@ -6271,7 +6270,7 @@
         <v>138</v>
       </c>
       <c r="C24" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D24" t="s">
         <v>303</v>
@@ -6295,7 +6294,7 @@
         <v>150</v>
       </c>
       <c r="C25" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D25" t="s">
         <v>303</v>
@@ -6319,7 +6318,7 @@
         <v>67</v>
       </c>
       <c r="C26" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D26" t="s">
         <v>303</v>
@@ -6343,7 +6342,7 @@
         <v>79</v>
       </c>
       <c r="C27" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D27" t="s">
         <v>303</v>
@@ -6367,7 +6366,7 @@
         <v>91</v>
       </c>
       <c r="C28" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D28" t="s">
         <v>303</v>
@@ -6391,7 +6390,7 @@
         <v>103</v>
       </c>
       <c r="C29" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D29" t="s">
         <v>303</v>
@@ -6415,7 +6414,7 @@
         <v>115</v>
       </c>
       <c r="C30" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D30" t="s">
         <v>303</v>
@@ -6439,7 +6438,7 @@
         <v>127</v>
       </c>
       <c r="C31" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D31" t="s">
         <v>303</v>
@@ -6463,7 +6462,7 @@
         <v>139</v>
       </c>
       <c r="C32" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D32" t="s">
         <v>303</v>
@@ -6487,7 +6486,7 @@
         <v>151</v>
       </c>
       <c r="C33" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D33" t="s">
         <v>303</v>
@@ -6511,7 +6510,7 @@
         <v>68</v>
       </c>
       <c r="C34" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D34" t="s">
         <v>303</v>
@@ -6535,7 +6534,7 @@
         <v>80</v>
       </c>
       <c r="C35" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D35" t="s">
         <v>303</v>
@@ -6559,7 +6558,7 @@
         <v>92</v>
       </c>
       <c r="C36" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D36" t="s">
         <v>303</v>
@@ -6583,7 +6582,7 @@
         <v>104</v>
       </c>
       <c r="C37" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D37" t="s">
         <v>303</v>
@@ -6607,7 +6606,7 @@
         <v>116</v>
       </c>
       <c r="C38" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D38" t="s">
         <v>303</v>
@@ -6631,7 +6630,7 @@
         <v>128</v>
       </c>
       <c r="C39" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D39" t="s">
         <v>303</v>
@@ -6655,7 +6654,7 @@
         <v>140</v>
       </c>
       <c r="C40" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D40" t="s">
         <v>303</v>
@@ -6679,7 +6678,7 @@
         <v>152</v>
       </c>
       <c r="C41" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D41" t="s">
         <v>303</v>
@@ -6703,7 +6702,7 @@
         <v>69</v>
       </c>
       <c r="C42" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D42" t="s">
         <v>303</v>
@@ -6727,7 +6726,7 @@
         <v>81</v>
       </c>
       <c r="C43" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D43" t="s">
         <v>303</v>
@@ -6751,7 +6750,7 @@
         <v>93</v>
       </c>
       <c r="C44" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D44" t="s">
         <v>303</v>
@@ -6775,7 +6774,7 @@
         <v>105</v>
       </c>
       <c r="C45" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D45" t="s">
         <v>303</v>
@@ -6799,7 +6798,7 @@
         <v>117</v>
       </c>
       <c r="C46" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D46" t="s">
         <v>303</v>
@@ -6823,7 +6822,7 @@
         <v>129</v>
       </c>
       <c r="C47" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D47" t="s">
         <v>303</v>
@@ -6847,7 +6846,7 @@
         <v>141</v>
       </c>
       <c r="C48" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D48" t="s">
         <v>303</v>
@@ -6871,7 +6870,7 @@
         <v>153</v>
       </c>
       <c r="C49" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D49" t="s">
         <v>303</v>
@@ -6895,7 +6894,7 @@
         <v>70</v>
       </c>
       <c r="C50" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D50" t="s">
         <v>303</v>
@@ -6919,7 +6918,7 @@
         <v>82</v>
       </c>
       <c r="C51" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D51" t="s">
         <v>303</v>
@@ -6943,7 +6942,7 @@
         <v>94</v>
       </c>
       <c r="C52" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D52" t="s">
         <v>303</v>
@@ -6967,7 +6966,7 @@
         <v>106</v>
       </c>
       <c r="C53" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D53" t="s">
         <v>303</v>
@@ -6991,7 +6990,7 @@
         <v>118</v>
       </c>
       <c r="C54" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D54" t="s">
         <v>303</v>
@@ -7015,7 +7014,7 @@
         <v>130</v>
       </c>
       <c r="C55" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D55" t="s">
         <v>303</v>
@@ -7039,7 +7038,7 @@
         <v>142</v>
       </c>
       <c r="C56" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D56" t="s">
         <v>303</v>
@@ -7063,7 +7062,7 @@
         <v>154</v>
       </c>
       <c r="C57" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D57" t="s">
         <v>303</v>
@@ -7087,7 +7086,7 @@
         <v>71</v>
       </c>
       <c r="C58" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D58" t="s">
         <v>303</v>
@@ -7111,7 +7110,7 @@
         <v>83</v>
       </c>
       <c r="C59" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D59" t="s">
         <v>303</v>
@@ -7135,7 +7134,7 @@
         <v>95</v>
       </c>
       <c r="C60" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D60" t="s">
         <v>303</v>
@@ -7159,7 +7158,7 @@
         <v>107</v>
       </c>
       <c r="C61" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D61" t="s">
         <v>303</v>
@@ -7183,7 +7182,7 @@
         <v>119</v>
       </c>
       <c r="C62" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D62" t="s">
         <v>303</v>
@@ -7207,7 +7206,7 @@
         <v>131</v>
       </c>
       <c r="C63" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D63" t="s">
         <v>303</v>
@@ -7231,7 +7230,7 @@
         <v>143</v>
       </c>
       <c r="C64" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D64" t="s">
         <v>303</v>
@@ -7255,7 +7254,7 @@
         <v>155</v>
       </c>
       <c r="C65" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D65" t="s">
         <v>303</v>
@@ -7279,7 +7278,7 @@
         <v>72</v>
       </c>
       <c r="C66" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D66" t="s">
         <v>303</v>
@@ -7303,7 +7302,7 @@
         <v>84</v>
       </c>
       <c r="C67" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D67" t="s">
         <v>303</v>
@@ -7327,7 +7326,7 @@
         <v>96</v>
       </c>
       <c r="C68" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D68" t="s">
         <v>303</v>
@@ -7351,7 +7350,7 @@
         <v>108</v>
       </c>
       <c r="C69" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D69" t="s">
         <v>303</v>
@@ -7375,7 +7374,7 @@
         <v>120</v>
       </c>
       <c r="C70" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D70" t="s">
         <v>303</v>
@@ -7399,7 +7398,7 @@
         <v>132</v>
       </c>
       <c r="C71" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D71" t="s">
         <v>303</v>
@@ -7423,7 +7422,7 @@
         <v>144</v>
       </c>
       <c r="C72" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D72" t="s">
         <v>303</v>
@@ -7447,7 +7446,7 @@
         <v>156</v>
       </c>
       <c r="C73" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D73" t="s">
         <v>303</v>
@@ -7471,7 +7470,7 @@
         <v>73</v>
       </c>
       <c r="C74" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D74" t="s">
         <v>303</v>
@@ -7495,7 +7494,7 @@
         <v>85</v>
       </c>
       <c r="C75" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D75" t="s">
         <v>303</v>
@@ -7519,7 +7518,7 @@
         <v>97</v>
       </c>
       <c r="C76" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D76" t="s">
         <v>303</v>
@@ -7543,7 +7542,7 @@
         <v>109</v>
       </c>
       <c r="C77" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D77" t="s">
         <v>303</v>
@@ -7567,7 +7566,7 @@
         <v>121</v>
       </c>
       <c r="C78" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D78" t="s">
         <v>303</v>
@@ -7591,7 +7590,7 @@
         <v>133</v>
       </c>
       <c r="C79" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D79" t="s">
         <v>303</v>
@@ -7615,7 +7614,7 @@
         <v>145</v>
       </c>
       <c r="C80" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D80" t="s">
         <v>303</v>
@@ -7639,7 +7638,7 @@
         <v>157</v>
       </c>
       <c r="C81" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D81" t="s">
         <v>303</v>
@@ -7663,7 +7662,7 @@
         <v>74</v>
       </c>
       <c r="C82" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D82" t="s">
         <v>303</v>
@@ -7687,7 +7686,7 @@
         <v>86</v>
       </c>
       <c r="C83" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D83" t="s">
         <v>303</v>
@@ -7711,7 +7710,7 @@
         <v>98</v>
       </c>
       <c r="C84" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D84" t="s">
         <v>303</v>
@@ -7735,7 +7734,7 @@
         <v>110</v>
       </c>
       <c r="C85" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D85" t="s">
         <v>303</v>
@@ -7759,7 +7758,7 @@
         <v>122</v>
       </c>
       <c r="C86" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D86" t="s">
         <v>303</v>
@@ -7783,7 +7782,7 @@
         <v>134</v>
       </c>
       <c r="C87" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D87" t="s">
         <v>303</v>
@@ -7807,7 +7806,7 @@
         <v>146</v>
       </c>
       <c r="C88" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D88" t="s">
         <v>303</v>
@@ -7831,7 +7830,7 @@
         <v>158</v>
       </c>
       <c r="C89" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D89" t="s">
         <v>303</v>
@@ -7855,7 +7854,7 @@
         <v>75</v>
       </c>
       <c r="C90" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D90" t="s">
         <v>303</v>
@@ -7879,7 +7878,7 @@
         <v>87</v>
       </c>
       <c r="C91" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D91" t="s">
         <v>303</v>
@@ -7903,7 +7902,7 @@
         <v>99</v>
       </c>
       <c r="C92" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D92" t="s">
         <v>303</v>
@@ -7927,7 +7926,7 @@
         <v>111</v>
       </c>
       <c r="C93" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D93" t="s">
         <v>303</v>
@@ -7951,7 +7950,7 @@
         <v>123</v>
       </c>
       <c r="C94" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D94" t="s">
         <v>303</v>
@@ -7975,7 +7974,7 @@
         <v>135</v>
       </c>
       <c r="C95" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D95" t="s">
         <v>303</v>
@@ -7999,7 +7998,7 @@
         <v>147</v>
       </c>
       <c r="C96" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D96" t="s">
         <v>303</v>
@@ -8023,7 +8022,7 @@
         <v>159</v>
       </c>
       <c r="C97" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D97" t="s">
         <v>303</v>
@@ -8047,7 +8046,7 @@
         <v>64</v>
       </c>
       <c r="C98" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D98" t="s">
         <v>303</v>
@@ -8071,7 +8070,7 @@
         <v>76</v>
       </c>
       <c r="C99" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D99" t="s">
         <v>303</v>
@@ -8095,7 +8094,7 @@
         <v>88</v>
       </c>
       <c r="C100" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D100" t="s">
         <v>303</v>
@@ -8119,7 +8118,7 @@
         <v>100</v>
       </c>
       <c r="C101" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D101" t="s">
         <v>303</v>
@@ -8143,7 +8142,7 @@
         <v>112</v>
       </c>
       <c r="C102" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D102" t="s">
         <v>303</v>
@@ -8167,7 +8166,7 @@
         <v>124</v>
       </c>
       <c r="C103" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D103" t="s">
         <v>303</v>
@@ -8191,7 +8190,7 @@
         <v>136</v>
       </c>
       <c r="C104" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D104" t="s">
         <v>303</v>
@@ -8215,7 +8214,7 @@
         <v>148</v>
       </c>
       <c r="C105" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D105" t="s">
         <v>303</v>
@@ -8239,7 +8238,7 @@
         <v>65</v>
       </c>
       <c r="C106" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D106" t="s">
         <v>303</v>
@@ -8263,7 +8262,7 @@
         <v>77</v>
       </c>
       <c r="C107" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D107" t="s">
         <v>303</v>
@@ -8287,7 +8286,7 @@
         <v>89</v>
       </c>
       <c r="C108" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D108" t="s">
         <v>303</v>
@@ -8311,7 +8310,7 @@
         <v>101</v>
       </c>
       <c r="C109" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D109" t="s">
         <v>303</v>
@@ -8335,7 +8334,7 @@
         <v>113</v>
       </c>
       <c r="C110" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D110" t="s">
         <v>303</v>
@@ -8359,7 +8358,7 @@
         <v>125</v>
       </c>
       <c r="C111" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D111" t="s">
         <v>303</v>
@@ -8383,7 +8382,7 @@
         <v>137</v>
       </c>
       <c r="C112" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D112" t="s">
         <v>303</v>
@@ -8407,7 +8406,7 @@
         <v>149</v>
       </c>
       <c r="C113" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D113" t="s">
         <v>303</v>
@@ -8431,7 +8430,7 @@
         <v>66</v>
       </c>
       <c r="C114" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D114" t="s">
         <v>303</v>
@@ -8455,7 +8454,7 @@
         <v>78</v>
       </c>
       <c r="C115" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D115" t="s">
         <v>303</v>
@@ -8479,7 +8478,7 @@
         <v>90</v>
       </c>
       <c r="C116" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D116" t="s">
         <v>303</v>
@@ -8503,7 +8502,7 @@
         <v>102</v>
       </c>
       <c r="C117" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D117" t="s">
         <v>303</v>
@@ -8527,7 +8526,7 @@
         <v>114</v>
       </c>
       <c r="C118" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D118" t="s">
         <v>303</v>
@@ -8551,7 +8550,7 @@
         <v>126</v>
       </c>
       <c r="C119" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D119" t="s">
         <v>303</v>
@@ -8575,7 +8574,7 @@
         <v>138</v>
       </c>
       <c r="C120" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D120" t="s">
         <v>303</v>
@@ -8599,7 +8598,7 @@
         <v>150</v>
       </c>
       <c r="C121" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D121" t="s">
         <v>303</v>

--- a/data/GEP00007/GEP00007_ARID1A.xlsx
+++ b/data/GEP00007/GEP00007_ARID1A.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="28705"/>
-  <workbookPr autoCompressPictures="0"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr autoCompressPictures="0" defaultThemeVersion="164011"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\smith04\Desktop\NGS final submission\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28280" windowHeight="17300" tabRatio="500" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13170" tabRatio="500" firstSheet="1" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Project" sheetId="1" r:id="rId1"/>
@@ -16,7 +21,7 @@
     <sheet name="Plate" sheetId="7" r:id="rId7"/>
     <sheet name="SequencingLibrary" sheetId="8" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="140001" iterateDelta="1E-4" concurrentCalc="0"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -949,13 +954,13 @@
     <t>non-fixed cells</t>
   </si>
   <si>
-    <t>GRCh38.p7</t>
+    <t>GRCh38</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -1028,13 +1033,14 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" readingOrder="1"/>
@@ -1319,7 +1325,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1333,15 +1339,15 @@
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="12.6640625" customWidth="1"/>
-    <col min="6" max="7" width="15.33203125" customWidth="1"/>
-    <col min="8" max="8" width="11.1640625" customWidth="1"/>
-    <col min="9" max="9" width="33.83203125" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" customWidth="1"/>
+    <col min="6" max="7" width="15.28515625" customWidth="1"/>
+    <col min="8" max="8" width="11.140625" customWidth="1"/>
+    <col min="9" max="9" width="33.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1370,7 +1376,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>167</v>
       </c>
@@ -1389,7 +1395,7 @@
       <c r="F2" t="s">
         <v>57</v>
       </c>
-      <c r="G2" s="7">
+      <c r="G2" s="8">
         <v>20170803</v>
       </c>
       <c r="H2" t="s">
@@ -1399,7 +1405,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="G3" s="1"/>
     </row>
   </sheetData>
@@ -1421,18 +1427,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="4" max="4" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5" customWidth="1"/>
-    <col min="7" max="7" width="10.33203125" customWidth="1"/>
+    <col min="4" max="4" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" customWidth="1"/>
+    <col min="7" max="7" width="10.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>9</v>
       </c>
@@ -1464,7 +1470,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>167</v>
       </c>
@@ -1474,7 +1480,7 @@
       <c r="C2" t="s">
         <v>60</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="4" t="s">
         <v>306</v>
       </c>
       <c r="E2" s="3" t="s">
@@ -1496,8 +1502,8 @@
         <v>170</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
-      <c r="G3" s="4"/>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="G3" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0249999999999999" bottom="1.0249999999999999" header="0.78749999999999998" footer="0.78749999999999998"/>
@@ -1522,15 +1528,15 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="11.5" customWidth="1"/>
-    <col min="3" max="3" width="26.5" customWidth="1"/>
-    <col min="4" max="4" width="13.83203125" customWidth="1"/>
-    <col min="5" max="5" width="14.5" customWidth="1"/>
+    <col min="1" max="2" width="11.42578125" customWidth="1"/>
+    <col min="3" max="3" width="26.42578125" customWidth="1"/>
+    <col min="4" max="4" width="13.85546875" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>17</v>
       </c>
@@ -1553,14 +1559,14 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="14">
+    <row r="2" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>173</v>
       </c>
       <c r="B2" t="s">
         <v>171</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="6" t="s">
         <v>174</v>
       </c>
       <c r="D2" t="s">
@@ -1576,14 +1582,14 @@
         <v>165</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="14">
+    <row r="3" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>173</v>
       </c>
       <c r="B3" t="s">
         <v>172</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="6" t="s">
         <v>175</v>
       </c>
       <c r="D3" t="s">
@@ -1622,14 +1628,14 @@
       <selection activeCell="E65" sqref="E65"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="24" customWidth="1"/>
-    <col min="3" max="3" width="20.33203125" customWidth="1"/>
-    <col min="4" max="4" width="18.33203125" customWidth="1"/>
+    <col min="3" max="3" width="20.28515625" customWidth="1"/>
+    <col min="4" max="4" width="18.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>23</v>
       </c>
@@ -1666,24 +1672,24 @@
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.1640625" customWidth="1"/>
-    <col min="2" max="2" width="14.83203125" customWidth="1"/>
-    <col min="3" max="3" width="13.1640625" customWidth="1"/>
-    <col min="4" max="4" width="14.1640625" customWidth="1"/>
-    <col min="5" max="5" width="5.83203125" customWidth="1"/>
-    <col min="8" max="8" width="11.83203125" customWidth="1"/>
-    <col min="9" max="9" width="10.83203125" customWidth="1"/>
-    <col min="10" max="10" width="15.5" customWidth="1"/>
-    <col min="11" max="14" width="14.1640625" customWidth="1"/>
-    <col min="15" max="16" width="14.83203125" customWidth="1"/>
-    <col min="17" max="18" width="31.6640625" customWidth="1"/>
-    <col min="19" max="21" width="14.83203125" customWidth="1"/>
-    <col min="22" max="22" width="10.33203125" customWidth="1"/>
+    <col min="1" max="1" width="14.140625" customWidth="1"/>
+    <col min="2" max="2" width="14.85546875" customWidth="1"/>
+    <col min="3" max="3" width="13.140625" customWidth="1"/>
+    <col min="4" max="4" width="14.140625" customWidth="1"/>
+    <col min="5" max="5" width="5.85546875" customWidth="1"/>
+    <col min="8" max="8" width="11.85546875" customWidth="1"/>
+    <col min="9" max="9" width="10.85546875" customWidth="1"/>
+    <col min="10" max="10" width="15.42578125" customWidth="1"/>
+    <col min="11" max="14" width="14.140625" customWidth="1"/>
+    <col min="15" max="16" width="14.85546875" customWidth="1"/>
+    <col min="17" max="18" width="31.7109375" customWidth="1"/>
+    <col min="19" max="21" width="14.85546875" customWidth="1"/>
+    <col min="22" max="22" width="10.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>23</v>
       </c>
@@ -1736,7 +1742,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="13">
+    <row r="2" spans="1:17" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>171</v>
       </c>
@@ -1762,13 +1768,13 @@
       <c r="I2">
         <v>346</v>
       </c>
-      <c r="J2" s="6" t="s">
+      <c r="J2" s="7" t="s">
         <v>177</v>
       </c>
       <c r="K2" s="2">
         <v>26729676</v>
       </c>
-      <c r="L2" s="6">
+      <c r="L2" s="7">
         <v>26729695</v>
       </c>
       <c r="M2">
@@ -1777,17 +1783,17 @@
       <c r="N2" t="s">
         <v>178</v>
       </c>
-      <c r="O2" s="6">
+      <c r="O2" s="7">
         <v>26729886</v>
       </c>
-      <c r="P2" s="6">
+      <c r="P2" s="7">
         <v>26729905</v>
       </c>
       <c r="Q2" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="13">
+    <row r="3" spans="1:17" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>172</v>
       </c>
@@ -1819,7 +1825,7 @@
       <c r="K3">
         <v>26729676</v>
       </c>
-      <c r="L3" s="6">
+      <c r="L3" s="7">
         <v>26729695</v>
       </c>
       <c r="M3">
@@ -1828,17 +1834,17 @@
       <c r="N3" t="s">
         <v>178</v>
       </c>
-      <c r="O3" s="6">
+      <c r="O3" s="7">
         <v>26729886</v>
       </c>
-      <c r="P3" s="6">
+      <c r="P3" s="7">
         <v>26729905</v>
       </c>
       <c r="Q3" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="6" spans="1:17">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="K6" s="2"/>
     </row>
   </sheetData>
@@ -1860,21 +1866,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J121"/>
   <sheetViews>
-    <sheetView topLeftCell="A41" workbookViewId="0">
-      <selection activeCell="C74" sqref="C74:C81"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G123" sqref="G123"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="20.83203125" customWidth="1"/>
-    <col min="4" max="4" width="13.5" customWidth="1"/>
-    <col min="7" max="7" width="21.33203125" customWidth="1"/>
+    <col min="1" max="2" width="20.85546875" customWidth="1"/>
+    <col min="4" max="4" width="13.42578125" customWidth="1"/>
+    <col min="7" max="7" width="21.28515625" customWidth="1"/>
     <col min="8" max="8" width="14" customWidth="1"/>
-    <col min="9" max="9" width="9.1640625" customWidth="1"/>
-    <col min="10" max="10" width="18.5" customWidth="1"/>
+    <col min="9" max="9" width="9.140625" customWidth="1"/>
+    <col min="10" max="10" width="18.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>9</v>
       </c>
@@ -1906,7 +1912,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>167</v>
       </c>
@@ -1926,7 +1932,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>167</v>
       </c>
@@ -1940,7 +1946,7 @@
         <v>160</v>
       </c>
       <c r="E3">
-        <v>69.099999999999994</v>
+        <v>1</v>
       </c>
       <c r="F3" t="s">
         <v>161</v>
@@ -1958,7 +1964,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>167</v>
       </c>
@@ -1972,7 +1978,7 @@
         <v>160</v>
       </c>
       <c r="E4">
-        <v>69.099999999999994</v>
+        <v>1</v>
       </c>
       <c r="F4" t="s">
         <v>161</v>
@@ -1990,7 +1996,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>167</v>
       </c>
@@ -2004,7 +2010,7 @@
         <v>160</v>
       </c>
       <c r="E5">
-        <v>69.099999999999994</v>
+        <v>1</v>
       </c>
       <c r="F5" t="s">
         <v>161</v>
@@ -2022,7 +2028,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>167</v>
       </c>
@@ -2036,7 +2042,7 @@
         <v>160</v>
       </c>
       <c r="E6">
-        <v>69.099999999999994</v>
+        <v>1</v>
       </c>
       <c r="F6" t="s">
         <v>161</v>
@@ -2054,7 +2060,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>167</v>
       </c>
@@ -2068,7 +2074,7 @@
         <v>160</v>
       </c>
       <c r="E7">
-        <v>69.099999999999994</v>
+        <v>1</v>
       </c>
       <c r="F7" t="s">
         <v>161</v>
@@ -2086,7 +2092,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>167</v>
       </c>
@@ -2100,7 +2106,7 @@
         <v>160</v>
       </c>
       <c r="E8">
-        <v>69.099999999999994</v>
+        <v>1</v>
       </c>
       <c r="F8" t="s">
         <v>161</v>
@@ -2118,7 +2124,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>167</v>
       </c>
@@ -2132,7 +2138,7 @@
         <v>160</v>
       </c>
       <c r="E9">
-        <v>69.099999999999994</v>
+        <v>1</v>
       </c>
       <c r="F9" t="s">
         <v>161</v>
@@ -2150,7 +2156,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>167</v>
       </c>
@@ -2164,7 +2170,7 @@
         <v>160</v>
       </c>
       <c r="E10">
-        <v>69.099999999999994</v>
+        <v>1</v>
       </c>
       <c r="F10" t="s">
         <v>161</v>
@@ -2182,7 +2188,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>167</v>
       </c>
@@ -2196,7 +2202,7 @@
         <v>160</v>
       </c>
       <c r="E11">
-        <v>69.099999999999994</v>
+        <v>1</v>
       </c>
       <c r="F11" t="s">
         <v>161</v>
@@ -2214,7 +2220,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>167</v>
       </c>
@@ -2228,7 +2234,7 @@
         <v>160</v>
       </c>
       <c r="E12">
-        <v>69.099999999999994</v>
+        <v>1</v>
       </c>
       <c r="F12" t="s">
         <v>161</v>
@@ -2246,7 +2252,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>167</v>
       </c>
@@ -2260,7 +2266,7 @@
         <v>160</v>
       </c>
       <c r="E13">
-        <v>69.099999999999994</v>
+        <v>1</v>
       </c>
       <c r="F13" t="s">
         <v>161</v>
@@ -2278,7 +2284,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>167</v>
       </c>
@@ -2292,7 +2298,7 @@
         <v>160</v>
       </c>
       <c r="E14">
-        <v>69.099999999999994</v>
+        <v>1</v>
       </c>
       <c r="F14" t="s">
         <v>161</v>
@@ -2310,7 +2316,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>167</v>
       </c>
@@ -2324,7 +2330,7 @@
         <v>160</v>
       </c>
       <c r="E15">
-        <v>69.099999999999994</v>
+        <v>1</v>
       </c>
       <c r="F15" t="s">
         <v>161</v>
@@ -2342,7 +2348,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>167</v>
       </c>
@@ -2356,7 +2362,7 @@
         <v>160</v>
       </c>
       <c r="E16">
-        <v>69.099999999999994</v>
+        <v>1</v>
       </c>
       <c r="F16" t="s">
         <v>161</v>
@@ -2374,7 +2380,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="17" spans="1:10">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>167</v>
       </c>
@@ -2388,7 +2394,7 @@
         <v>160</v>
       </c>
       <c r="E17">
-        <v>69.099999999999994</v>
+        <v>1</v>
       </c>
       <c r="F17" t="s">
         <v>161</v>
@@ -2406,7 +2412,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="18" spans="1:10">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>167</v>
       </c>
@@ -2420,7 +2426,7 @@
         <v>160</v>
       </c>
       <c r="E18">
-        <v>69.099999999999994</v>
+        <v>1</v>
       </c>
       <c r="F18" t="s">
         <v>161</v>
@@ -2438,7 +2444,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="19" spans="1:10">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>167</v>
       </c>
@@ -2452,7 +2458,7 @@
         <v>160</v>
       </c>
       <c r="E19">
-        <v>69.099999999999994</v>
+        <v>1</v>
       </c>
       <c r="F19" t="s">
         <v>161</v>
@@ -2470,7 +2476,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="20" spans="1:10">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>167</v>
       </c>
@@ -2484,7 +2490,7 @@
         <v>160</v>
       </c>
       <c r="E20">
-        <v>69.099999999999994</v>
+        <v>1</v>
       </c>
       <c r="F20" t="s">
         <v>161</v>
@@ -2502,7 +2508,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="21" spans="1:10">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>167</v>
       </c>
@@ -2516,7 +2522,7 @@
         <v>160</v>
       </c>
       <c r="E21">
-        <v>69.099999999999994</v>
+        <v>1</v>
       </c>
       <c r="F21" t="s">
         <v>161</v>
@@ -2534,7 +2540,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="22" spans="1:10">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>167</v>
       </c>
@@ -2548,7 +2554,7 @@
         <v>160</v>
       </c>
       <c r="E22">
-        <v>69.3</v>
+        <v>3</v>
       </c>
       <c r="F22" t="s">
         <v>161</v>
@@ -2566,7 +2572,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="23" spans="1:10">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>167</v>
       </c>
@@ -2580,7 +2586,7 @@
         <v>160</v>
       </c>
       <c r="E23">
-        <v>69.3</v>
+        <v>3</v>
       </c>
       <c r="F23" t="s">
         <v>161</v>
@@ -2598,7 +2604,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="24" spans="1:10">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>167</v>
       </c>
@@ -2612,7 +2618,7 @@
         <v>160</v>
       </c>
       <c r="E24">
-        <v>69.3</v>
+        <v>3</v>
       </c>
       <c r="F24" t="s">
         <v>161</v>
@@ -2630,7 +2636,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="25" spans="1:10">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>167</v>
       </c>
@@ -2644,7 +2650,7 @@
         <v>160</v>
       </c>
       <c r="E25">
-        <v>69.3</v>
+        <v>3</v>
       </c>
       <c r="F25" t="s">
         <v>161</v>
@@ -2662,7 +2668,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="26" spans="1:10">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>167</v>
       </c>
@@ -2676,7 +2682,7 @@
         <v>160</v>
       </c>
       <c r="E26">
-        <v>69.3</v>
+        <v>3</v>
       </c>
       <c r="F26" t="s">
         <v>161</v>
@@ -2694,7 +2700,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="27" spans="1:10">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>167</v>
       </c>
@@ -2708,7 +2714,7 @@
         <v>160</v>
       </c>
       <c r="E27">
-        <v>69.3</v>
+        <v>3</v>
       </c>
       <c r="F27" t="s">
         <v>161</v>
@@ -2726,7 +2732,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="28" spans="1:10">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>167</v>
       </c>
@@ -2740,7 +2746,7 @@
         <v>160</v>
       </c>
       <c r="E28">
-        <v>69.3</v>
+        <v>3</v>
       </c>
       <c r="F28" t="s">
         <v>161</v>
@@ -2758,7 +2764,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="29" spans="1:10">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>167</v>
       </c>
@@ -2772,7 +2778,7 @@
         <v>160</v>
       </c>
       <c r="E29">
-        <v>69.3</v>
+        <v>3</v>
       </c>
       <c r="F29" t="s">
         <v>161</v>
@@ -2790,7 +2796,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="30" spans="1:10">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>167</v>
       </c>
@@ -2804,7 +2810,7 @@
         <v>160</v>
       </c>
       <c r="E30">
-        <v>69.3</v>
+        <v>3</v>
       </c>
       <c r="F30" t="s">
         <v>161</v>
@@ -2822,7 +2828,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="31" spans="1:10">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>167</v>
       </c>
@@ -2836,7 +2842,7 @@
         <v>160</v>
       </c>
       <c r="E31">
-        <v>69.3</v>
+        <v>3</v>
       </c>
       <c r="F31" t="s">
         <v>161</v>
@@ -2854,7 +2860,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="32" spans="1:10">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>167</v>
       </c>
@@ -2868,7 +2874,7 @@
         <v>160</v>
       </c>
       <c r="E32">
-        <v>69.3</v>
+        <v>3</v>
       </c>
       <c r="F32" t="s">
         <v>161</v>
@@ -2886,7 +2892,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="33" spans="1:10">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>167</v>
       </c>
@@ -2900,7 +2906,7 @@
         <v>160</v>
       </c>
       <c r="E33">
-        <v>69.3</v>
+        <v>3</v>
       </c>
       <c r="F33" t="s">
         <v>161</v>
@@ -2918,7 +2924,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="34" spans="1:10">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>167</v>
       </c>
@@ -2932,7 +2938,7 @@
         <v>160</v>
       </c>
       <c r="E34">
-        <v>69.3</v>
+        <v>3</v>
       </c>
       <c r="F34" t="s">
         <v>161</v>
@@ -2950,7 +2956,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="35" spans="1:10">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>167</v>
       </c>
@@ -2964,7 +2970,7 @@
         <v>160</v>
       </c>
       <c r="E35">
-        <v>69.3</v>
+        <v>3</v>
       </c>
       <c r="F35" t="s">
         <v>161</v>
@@ -2982,7 +2988,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="36" spans="1:10">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>167</v>
       </c>
@@ -2996,7 +3002,7 @@
         <v>160</v>
       </c>
       <c r="E36">
-        <v>69.3</v>
+        <v>3</v>
       </c>
       <c r="F36" t="s">
         <v>161</v>
@@ -3014,7 +3020,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="37" spans="1:10">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>167</v>
       </c>
@@ -3028,7 +3034,7 @@
         <v>160</v>
       </c>
       <c r="E37">
-        <v>69.3</v>
+        <v>3</v>
       </c>
       <c r="F37" t="s">
         <v>161</v>
@@ -3046,7 +3052,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="38" spans="1:10">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>167</v>
       </c>
@@ -3060,7 +3066,7 @@
         <v>160</v>
       </c>
       <c r="E38">
-        <v>73.2</v>
+        <v>2</v>
       </c>
       <c r="F38" t="s">
         <v>161</v>
@@ -3078,7 +3084,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="39" spans="1:10">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>167</v>
       </c>
@@ -3092,7 +3098,7 @@
         <v>160</v>
       </c>
       <c r="E39">
-        <v>73.2</v>
+        <v>2</v>
       </c>
       <c r="F39" t="s">
         <v>161</v>
@@ -3110,7 +3116,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="40" spans="1:10">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>167</v>
       </c>
@@ -3124,7 +3130,7 @@
         <v>160</v>
       </c>
       <c r="E40">
-        <v>73.2</v>
+        <v>2</v>
       </c>
       <c r="F40" t="s">
         <v>161</v>
@@ -3142,7 +3148,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="41" spans="1:10">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>167</v>
       </c>
@@ -3156,7 +3162,7 @@
         <v>160</v>
       </c>
       <c r="E41">
-        <v>73.2</v>
+        <v>2</v>
       </c>
       <c r="F41" t="s">
         <v>161</v>
@@ -3174,7 +3180,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="42" spans="1:10">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>167</v>
       </c>
@@ -3188,7 +3194,7 @@
         <v>160</v>
       </c>
       <c r="E42">
-        <v>73.2</v>
+        <v>2</v>
       </c>
       <c r="F42" t="s">
         <v>161</v>
@@ -3206,7 +3212,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="43" spans="1:10">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>167</v>
       </c>
@@ -3220,7 +3226,7 @@
         <v>160</v>
       </c>
       <c r="E43">
-        <v>73.2</v>
+        <v>2</v>
       </c>
       <c r="F43" t="s">
         <v>161</v>
@@ -3238,7 +3244,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="44" spans="1:10">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>167</v>
       </c>
@@ -3252,7 +3258,7 @@
         <v>160</v>
       </c>
       <c r="E44">
-        <v>73.2</v>
+        <v>2</v>
       </c>
       <c r="F44" t="s">
         <v>161</v>
@@ -3270,7 +3276,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="45" spans="1:10">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>167</v>
       </c>
@@ -3284,7 +3290,7 @@
         <v>160</v>
       </c>
       <c r="E45">
-        <v>73.2</v>
+        <v>2</v>
       </c>
       <c r="F45" t="s">
         <v>161</v>
@@ -3302,7 +3308,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="46" spans="1:10">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>167</v>
       </c>
@@ -3316,7 +3322,7 @@
         <v>160</v>
       </c>
       <c r="E46">
-        <v>73.2</v>
+        <v>2</v>
       </c>
       <c r="F46" t="s">
         <v>161</v>
@@ -3334,7 +3340,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="47" spans="1:10">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>167</v>
       </c>
@@ -3348,7 +3354,7 @@
         <v>160</v>
       </c>
       <c r="E47">
-        <v>73.2</v>
+        <v>2</v>
       </c>
       <c r="F47" t="s">
         <v>161</v>
@@ -3366,7 +3372,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="48" spans="1:10">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>167</v>
       </c>
@@ -3380,7 +3386,7 @@
         <v>160</v>
       </c>
       <c r="E48">
-        <v>73.2</v>
+        <v>2</v>
       </c>
       <c r="F48" t="s">
         <v>161</v>
@@ -3398,7 +3404,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="49" spans="1:10">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>167</v>
       </c>
@@ -3412,7 +3418,7 @@
         <v>160</v>
       </c>
       <c r="E49">
-        <v>73.2</v>
+        <v>2</v>
       </c>
       <c r="F49" t="s">
         <v>161</v>
@@ -3430,7 +3436,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="50" spans="1:10">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>167</v>
       </c>
@@ -3444,7 +3450,7 @@
         <v>160</v>
       </c>
       <c r="E50">
-        <v>73.2</v>
+        <v>2</v>
       </c>
       <c r="F50" t="s">
         <v>161</v>
@@ -3462,7 +3468,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="51" spans="1:10">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>167</v>
       </c>
@@ -3476,7 +3482,7 @@
         <v>160</v>
       </c>
       <c r="E51">
-        <v>73.2</v>
+        <v>2</v>
       </c>
       <c r="F51" t="s">
         <v>161</v>
@@ -3494,7 +3500,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="52" spans="1:10">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>167</v>
       </c>
@@ -3508,7 +3514,7 @@
         <v>160</v>
       </c>
       <c r="E52">
-        <v>73.2</v>
+        <v>2</v>
       </c>
       <c r="F52" t="s">
         <v>161</v>
@@ -3526,7 +3532,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="53" spans="1:10">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>167</v>
       </c>
@@ -3540,7 +3546,7 @@
         <v>160</v>
       </c>
       <c r="E53">
-        <v>73.2</v>
+        <v>2</v>
       </c>
       <c r="F53" t="s">
         <v>161</v>
@@ -3558,7 +3564,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="54" spans="1:10">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>167</v>
       </c>
@@ -3572,7 +3578,7 @@
         <v>160</v>
       </c>
       <c r="E54">
-        <v>73.2</v>
+        <v>2</v>
       </c>
       <c r="F54" t="s">
         <v>161</v>
@@ -3590,7 +3596,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="55" spans="1:10">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>167</v>
       </c>
@@ -3604,7 +3610,7 @@
         <v>160</v>
       </c>
       <c r="E55">
-        <v>73.2</v>
+        <v>2</v>
       </c>
       <c r="F55" t="s">
         <v>161</v>
@@ -3622,7 +3628,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="56" spans="1:10">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>167</v>
       </c>
@@ -3636,7 +3642,7 @@
         <v>160</v>
       </c>
       <c r="E56">
-        <v>73.2</v>
+        <v>2</v>
       </c>
       <c r="F56" t="s">
         <v>161</v>
@@ -3654,7 +3660,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="57" spans="1:10">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>167</v>
       </c>
@@ -3668,7 +3674,7 @@
         <v>160</v>
       </c>
       <c r="E57">
-        <v>73.2</v>
+        <v>2</v>
       </c>
       <c r="F57" t="s">
         <v>161</v>
@@ -3686,7 +3692,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="58" spans="1:10">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>167</v>
       </c>
@@ -3700,7 +3706,7 @@
         <v>160</v>
       </c>
       <c r="E58">
-        <v>73.2</v>
+        <v>2</v>
       </c>
       <c r="F58" t="s">
         <v>161</v>
@@ -3718,7 +3724,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="59" spans="1:10">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>167</v>
       </c>
@@ -3732,7 +3738,7 @@
         <v>160</v>
       </c>
       <c r="E59">
-        <v>73.2</v>
+        <v>2</v>
       </c>
       <c r="F59" t="s">
         <v>161</v>
@@ -3750,7 +3756,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="60" spans="1:10">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>167</v>
       </c>
@@ -3764,7 +3770,7 @@
         <v>160</v>
       </c>
       <c r="E60">
-        <v>73.2</v>
+        <v>2</v>
       </c>
       <c r="F60" t="s">
         <v>161</v>
@@ -3782,7 +3788,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="61" spans="1:10">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>167</v>
       </c>
@@ -3796,7 +3802,7 @@
         <v>160</v>
       </c>
       <c r="E61">
-        <v>73.2</v>
+        <v>2</v>
       </c>
       <c r="F61" t="s">
         <v>161</v>
@@ -3814,7 +3820,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="62" spans="1:10">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>167</v>
       </c>
@@ -3828,7 +3834,7 @@
         <v>160</v>
       </c>
       <c r="E62">
-        <v>73.2</v>
+        <v>2</v>
       </c>
       <c r="F62" t="s">
         <v>161</v>
@@ -3846,7 +3852,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="63" spans="1:10">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>167</v>
       </c>
@@ -3860,7 +3866,7 @@
         <v>160</v>
       </c>
       <c r="E63">
-        <v>73.2</v>
+        <v>2</v>
       </c>
       <c r="F63" t="s">
         <v>161</v>
@@ -3878,7 +3884,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="64" spans="1:10">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>167</v>
       </c>
@@ -3892,7 +3898,7 @@
         <v>160</v>
       </c>
       <c r="E64">
-        <v>73.2</v>
+        <v>2</v>
       </c>
       <c r="F64" t="s">
         <v>161</v>
@@ -3910,7 +3916,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="65" spans="1:10">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>167</v>
       </c>
@@ -3924,7 +3930,7 @@
         <v>160</v>
       </c>
       <c r="E65">
-        <v>73.2</v>
+        <v>2</v>
       </c>
       <c r="F65" t="s">
         <v>161</v>
@@ -3942,7 +3948,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="66" spans="1:10">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>167</v>
       </c>
@@ -3956,7 +3962,7 @@
         <v>160</v>
       </c>
       <c r="E66">
-        <v>73.2</v>
+        <v>2</v>
       </c>
       <c r="F66" t="s">
         <v>161</v>
@@ -3974,7 +3980,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="67" spans="1:10">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>167</v>
       </c>
@@ -3988,7 +3994,7 @@
         <v>160</v>
       </c>
       <c r="E67">
-        <v>73.2</v>
+        <v>2</v>
       </c>
       <c r="F67" t="s">
         <v>161</v>
@@ -4006,7 +4012,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="68" spans="1:10">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>167</v>
       </c>
@@ -4020,7 +4026,7 @@
         <v>160</v>
       </c>
       <c r="E68">
-        <v>73.2</v>
+        <v>2</v>
       </c>
       <c r="F68" t="s">
         <v>161</v>
@@ -4038,7 +4044,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="69" spans="1:10">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>167</v>
       </c>
@@ -4052,7 +4058,7 @@
         <v>160</v>
       </c>
       <c r="E69">
-        <v>73.2</v>
+        <v>2</v>
       </c>
       <c r="F69" t="s">
         <v>161</v>
@@ -4070,7 +4076,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="70" spans="1:10">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>167</v>
       </c>
@@ -4084,7 +4090,7 @@
         <v>160</v>
       </c>
       <c r="E70">
-        <v>73.2</v>
+        <v>2</v>
       </c>
       <c r="F70" t="s">
         <v>161</v>
@@ -4102,7 +4108,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="71" spans="1:10">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>167</v>
       </c>
@@ -4116,7 +4122,7 @@
         <v>160</v>
       </c>
       <c r="E71">
-        <v>73.2</v>
+        <v>2</v>
       </c>
       <c r="F71" t="s">
         <v>161</v>
@@ -4134,7 +4140,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="72" spans="1:10">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>167</v>
       </c>
@@ -4148,7 +4154,7 @@
         <v>160</v>
       </c>
       <c r="E72">
-        <v>73.2</v>
+        <v>2</v>
       </c>
       <c r="F72" t="s">
         <v>161</v>
@@ -4166,7 +4172,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="73" spans="1:10">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>167</v>
       </c>
@@ -4180,7 +4186,7 @@
         <v>160</v>
       </c>
       <c r="E73">
-        <v>73.2</v>
+        <v>2</v>
       </c>
       <c r="F73" t="s">
         <v>161</v>
@@ -4198,7 +4204,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="74" spans="1:10">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>167</v>
       </c>
@@ -4212,7 +4218,7 @@
         <v>160</v>
       </c>
       <c r="E74">
-        <v>73.3</v>
+        <v>3</v>
       </c>
       <c r="F74" t="s">
         <v>161</v>
@@ -4230,7 +4236,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="75" spans="1:10">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>167</v>
       </c>
@@ -4244,7 +4250,7 @@
         <v>160</v>
       </c>
       <c r="E75">
-        <v>73.3</v>
+        <v>3</v>
       </c>
       <c r="F75" t="s">
         <v>161</v>
@@ -4262,7 +4268,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="76" spans="1:10">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>167</v>
       </c>
@@ -4276,7 +4282,7 @@
         <v>160</v>
       </c>
       <c r="E76">
-        <v>73.3</v>
+        <v>3</v>
       </c>
       <c r="F76" t="s">
         <v>161</v>
@@ -4294,7 +4300,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="77" spans="1:10">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>167</v>
       </c>
@@ -4308,7 +4314,7 @@
         <v>160</v>
       </c>
       <c r="E77">
-        <v>73.3</v>
+        <v>3</v>
       </c>
       <c r="F77" t="s">
         <v>161</v>
@@ -4326,7 +4332,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="78" spans="1:10">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>167</v>
       </c>
@@ -4340,7 +4346,7 @@
         <v>160</v>
       </c>
       <c r="E78">
-        <v>73.3</v>
+        <v>3</v>
       </c>
       <c r="F78" t="s">
         <v>161</v>
@@ -4358,7 +4364,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="79" spans="1:10">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>167</v>
       </c>
@@ -4372,7 +4378,7 @@
         <v>160</v>
       </c>
       <c r="E79">
-        <v>73.3</v>
+        <v>3</v>
       </c>
       <c r="F79" t="s">
         <v>161</v>
@@ -4390,7 +4396,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="80" spans="1:10">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>167</v>
       </c>
@@ -4404,7 +4410,7 @@
         <v>160</v>
       </c>
       <c r="E80">
-        <v>73.3</v>
+        <v>3</v>
       </c>
       <c r="F80" t="s">
         <v>161</v>
@@ -4422,7 +4428,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="81" spans="1:10">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>167</v>
       </c>
@@ -4436,7 +4442,7 @@
         <v>160</v>
       </c>
       <c r="E81">
-        <v>73.3</v>
+        <v>3</v>
       </c>
       <c r="F81" t="s">
         <v>161</v>
@@ -4454,7 +4460,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="82" spans="1:10">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>167</v>
       </c>
@@ -4474,7 +4480,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="83" spans="1:10">
+    <row r="83" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>167</v>
       </c>
@@ -4494,7 +4500,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="84" spans="1:10">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>167</v>
       </c>
@@ -4514,7 +4520,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="85" spans="1:10">
+    <row r="85" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>167</v>
       </c>
@@ -4534,7 +4540,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="86" spans="1:10">
+    <row r="86" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>167</v>
       </c>
@@ -4554,7 +4560,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="87" spans="1:10">
+    <row r="87" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>167</v>
       </c>
@@ -4574,7 +4580,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="88" spans="1:10">
+    <row r="88" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>167</v>
       </c>
@@ -4594,7 +4600,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="89" spans="1:10">
+    <row r="89" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>167</v>
       </c>
@@ -4614,7 +4620,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="90" spans="1:10">
+    <row r="90" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>167</v>
       </c>
@@ -4628,7 +4634,7 @@
         <v>160</v>
       </c>
       <c r="E90">
-        <v>73.3</v>
+        <v>3</v>
       </c>
       <c r="F90" t="s">
         <v>161</v>
@@ -4646,7 +4652,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="91" spans="1:10">
+    <row r="91" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>167</v>
       </c>
@@ -4660,7 +4666,7 @@
         <v>160</v>
       </c>
       <c r="E91">
-        <v>73.3</v>
+        <v>3</v>
       </c>
       <c r="F91" t="s">
         <v>161</v>
@@ -4678,7 +4684,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="92" spans="1:10">
+    <row r="92" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>167</v>
       </c>
@@ -4692,7 +4698,7 @@
         <v>160</v>
       </c>
       <c r="E92">
-        <v>73.3</v>
+        <v>3</v>
       </c>
       <c r="F92" t="s">
         <v>161</v>
@@ -4710,7 +4716,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="93" spans="1:10">
+    <row r="93" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>167</v>
       </c>
@@ -4724,7 +4730,7 @@
         <v>160</v>
       </c>
       <c r="E93">
-        <v>73.3</v>
+        <v>3</v>
       </c>
       <c r="F93" t="s">
         <v>161</v>
@@ -4742,7 +4748,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="94" spans="1:10">
+    <row r="94" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>167</v>
       </c>
@@ -4756,7 +4762,7 @@
         <v>160</v>
       </c>
       <c r="E94">
-        <v>73.3</v>
+        <v>3</v>
       </c>
       <c r="F94" t="s">
         <v>161</v>
@@ -4774,7 +4780,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="95" spans="1:10">
+    <row r="95" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>167</v>
       </c>
@@ -4788,7 +4794,7 @@
         <v>160</v>
       </c>
       <c r="E95">
-        <v>73.3</v>
+        <v>3</v>
       </c>
       <c r="F95" t="s">
         <v>161</v>
@@ -4806,7 +4812,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="96" spans="1:10">
+    <row r="96" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>167</v>
       </c>
@@ -4820,7 +4826,7 @@
         <v>160</v>
       </c>
       <c r="E96">
-        <v>73.3</v>
+        <v>3</v>
       </c>
       <c r="F96" t="s">
         <v>161</v>
@@ -4838,7 +4844,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="97" spans="1:10">
+    <row r="97" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>167</v>
       </c>
@@ -4858,7 +4864,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="98" spans="1:10">
+    <row r="98" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>167</v>
       </c>
@@ -4878,7 +4884,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="99" spans="1:10">
+    <row r="99" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>167</v>
       </c>
@@ -4892,7 +4898,7 @@
         <v>160</v>
       </c>
       <c r="E99">
-        <v>73.3</v>
+        <v>3</v>
       </c>
       <c r="F99" t="s">
         <v>161</v>
@@ -4910,7 +4916,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="100" spans="1:10">
+    <row r="100" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>167</v>
       </c>
@@ -4924,7 +4930,7 @@
         <v>160</v>
       </c>
       <c r="E100">
-        <v>73.3</v>
+        <v>3</v>
       </c>
       <c r="F100" t="s">
         <v>161</v>
@@ -4942,7 +4948,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="101" spans="1:10">
+    <row r="101" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>167</v>
       </c>
@@ -4956,7 +4962,7 @@
         <v>160</v>
       </c>
       <c r="E101">
-        <v>73.3</v>
+        <v>3</v>
       </c>
       <c r="F101" t="s">
         <v>161</v>
@@ -4974,7 +4980,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="102" spans="1:10">
+    <row r="102" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>167</v>
       </c>
@@ -4988,7 +4994,7 @@
         <v>160</v>
       </c>
       <c r="E102">
-        <v>73.3</v>
+        <v>3</v>
       </c>
       <c r="F102" t="s">
         <v>161</v>
@@ -5006,7 +5012,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="103" spans="1:10">
+    <row r="103" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>167</v>
       </c>
@@ -5020,7 +5026,7 @@
         <v>160</v>
       </c>
       <c r="E103">
-        <v>73.3</v>
+        <v>3</v>
       </c>
       <c r="F103" t="s">
         <v>161</v>
@@ -5038,7 +5044,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="104" spans="1:10">
+    <row r="104" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>167</v>
       </c>
@@ -5052,7 +5058,7 @@
         <v>160</v>
       </c>
       <c r="E104">
-        <v>73.3</v>
+        <v>3</v>
       </c>
       <c r="F104" t="s">
         <v>161</v>
@@ -5070,7 +5076,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="105" spans="1:10">
+    <row r="105" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>167</v>
       </c>
@@ -5084,7 +5090,7 @@
         <v>160</v>
       </c>
       <c r="E105">
-        <v>73.3</v>
+        <v>3</v>
       </c>
       <c r="F105" t="s">
         <v>161</v>
@@ -5102,7 +5108,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="106" spans="1:10">
+    <row r="106" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>167</v>
       </c>
@@ -5116,7 +5122,7 @@
         <v>160</v>
       </c>
       <c r="E106">
-        <v>73.3</v>
+        <v>3</v>
       </c>
       <c r="F106" t="s">
         <v>161</v>
@@ -5134,7 +5140,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="107" spans="1:10">
+    <row r="107" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>167</v>
       </c>
@@ -5148,7 +5154,7 @@
         <v>160</v>
       </c>
       <c r="E107">
-        <v>73.3</v>
+        <v>3</v>
       </c>
       <c r="F107" t="s">
         <v>161</v>
@@ -5166,7 +5172,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="108" spans="1:10">
+    <row r="108" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>167</v>
       </c>
@@ -5180,7 +5186,7 @@
         <v>160</v>
       </c>
       <c r="E108">
-        <v>73.3</v>
+        <v>3</v>
       </c>
       <c r="F108" t="s">
         <v>161</v>
@@ -5198,7 +5204,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="109" spans="1:10">
+    <row r="109" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>167</v>
       </c>
@@ -5212,7 +5218,7 @@
         <v>160</v>
       </c>
       <c r="E109">
-        <v>73.3</v>
+        <v>3</v>
       </c>
       <c r="F109" t="s">
         <v>161</v>
@@ -5230,7 +5236,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="110" spans="1:10">
+    <row r="110" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>167</v>
       </c>
@@ -5244,7 +5250,7 @@
         <v>160</v>
       </c>
       <c r="E110">
-        <v>73.3</v>
+        <v>3</v>
       </c>
       <c r="F110" t="s">
         <v>161</v>
@@ -5262,7 +5268,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="111" spans="1:10">
+    <row r="111" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>167</v>
       </c>
@@ -5276,7 +5282,7 @@
         <v>160</v>
       </c>
       <c r="E111">
-        <v>73.3</v>
+        <v>3</v>
       </c>
       <c r="F111" t="s">
         <v>161</v>
@@ -5294,7 +5300,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="112" spans="1:10">
+    <row r="112" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>167</v>
       </c>
@@ -5308,7 +5314,7 @@
         <v>160</v>
       </c>
       <c r="E112">
-        <v>73.3</v>
+        <v>3</v>
       </c>
       <c r="F112" t="s">
         <v>161</v>
@@ -5326,7 +5332,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="113" spans="1:10">
+    <row r="113" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>167</v>
       </c>
@@ -5340,7 +5346,7 @@
         <v>160</v>
       </c>
       <c r="E113">
-        <v>73.3</v>
+        <v>3</v>
       </c>
       <c r="F113" t="s">
         <v>161</v>
@@ -5358,7 +5364,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="114" spans="1:10">
+    <row r="114" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>167</v>
       </c>
@@ -5372,7 +5378,7 @@
         <v>160</v>
       </c>
       <c r="E114">
-        <v>73.3</v>
+        <v>3</v>
       </c>
       <c r="F114" t="s">
         <v>161</v>
@@ -5390,7 +5396,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="115" spans="1:10">
+    <row r="115" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>167</v>
       </c>
@@ -5404,7 +5410,7 @@
         <v>160</v>
       </c>
       <c r="E115">
-        <v>73.3</v>
+        <v>3</v>
       </c>
       <c r="F115" t="s">
         <v>161</v>
@@ -5422,7 +5428,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="116" spans="1:10">
+    <row r="116" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>167</v>
       </c>
@@ -5436,7 +5442,7 @@
         <v>160</v>
       </c>
       <c r="E116">
-        <v>73.3</v>
+        <v>3</v>
       </c>
       <c r="F116" t="s">
         <v>161</v>
@@ -5454,7 +5460,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="117" spans="1:10">
+    <row r="117" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>167</v>
       </c>
@@ -5468,7 +5474,7 @@
         <v>160</v>
       </c>
       <c r="E117">
-        <v>73.3</v>
+        <v>3</v>
       </c>
       <c r="F117" t="s">
         <v>161</v>
@@ -5486,7 +5492,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="118" spans="1:10">
+    <row r="118" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>167</v>
       </c>
@@ -5500,7 +5506,7 @@
         <v>160</v>
       </c>
       <c r="E118">
-        <v>73.3</v>
+        <v>3</v>
       </c>
       <c r="F118" t="s">
         <v>161</v>
@@ -5518,7 +5524,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="119" spans="1:10">
+    <row r="119" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>167</v>
       </c>
@@ -5532,7 +5538,7 @@
         <v>160</v>
       </c>
       <c r="E119">
-        <v>73.3</v>
+        <v>3</v>
       </c>
       <c r="F119" t="s">
         <v>161</v>
@@ -5550,7 +5556,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="120" spans="1:10">
+    <row r="120" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>167</v>
       </c>
@@ -5564,7 +5570,7 @@
         <v>160</v>
       </c>
       <c r="E120">
-        <v>73.3</v>
+        <v>3</v>
       </c>
       <c r="F120" t="s">
         <v>161</v>
@@ -5582,7 +5588,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="121" spans="1:10">
+    <row r="121" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>167</v>
       </c>
@@ -5596,7 +5602,7 @@
         <v>160</v>
       </c>
       <c r="E121">
-        <v>73.3</v>
+        <v>3</v>
       </c>
       <c r="F121" t="s">
         <v>161</v>
@@ -5637,14 +5643,14 @@
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.6640625" customWidth="1"/>
-    <col min="2" max="2" width="24.83203125" customWidth="1"/>
-    <col min="3" max="3" width="73.1640625" customWidth="1"/>
+    <col min="1" max="1" width="14.7109375" customWidth="1"/>
+    <col min="2" max="2" width="24.85546875" customWidth="1"/>
+    <col min="3" max="3" width="73.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>48</v>
       </c>
@@ -5658,7 +5664,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>179</v>
       </c>
@@ -5669,7 +5675,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>180</v>
       </c>
@@ -5699,19 +5705,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G121"/>
   <sheetViews>
-    <sheetView topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C121"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="23.6640625" customWidth="1"/>
-    <col min="3" max="5" width="13.5" customWidth="1"/>
-    <col min="6" max="6" width="19.5" customWidth="1"/>
-    <col min="7" max="7" width="31.83203125" customWidth="1"/>
+    <col min="1" max="1" width="23.7109375" customWidth="1"/>
+    <col min="3" max="5" width="13.42578125" customWidth="1"/>
+    <col min="6" max="6" width="19.42578125" customWidth="1"/>
+    <col min="7" max="7" width="31.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>48</v>
       </c>
@@ -5734,7 +5740,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>179</v>
       </c>
@@ -5758,7 +5764,7 @@
         <v>GEP00007_01A1</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>179</v>
       </c>
@@ -5782,7 +5788,7 @@
         <v>GEP00007_01B1</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>179</v>
       </c>
@@ -5806,7 +5812,7 @@
         <v>GEP00007_01C1</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>179</v>
       </c>
@@ -5830,7 +5836,7 @@
         <v>GEP00007_01D1</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>179</v>
       </c>
@@ -5854,7 +5860,7 @@
         <v>GEP00007_01E1</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>179</v>
       </c>
@@ -5878,7 +5884,7 @@
         <v>GEP00007_01F1</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>179</v>
       </c>
@@ -5902,7 +5908,7 @@
         <v>GEP00007_01G1</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>179</v>
       </c>
@@ -5926,7 +5932,7 @@
         <v>GEP00007_01H1</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>179</v>
       </c>
@@ -5950,7 +5956,7 @@
         <v>GEP00007_01A2</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>179</v>
       </c>
@@ -5974,7 +5980,7 @@
         <v>GEP00007_01B2</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>179</v>
       </c>
@@ -5998,7 +6004,7 @@
         <v>GEP00007_01C2</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>179</v>
       </c>
@@ -6022,7 +6028,7 @@
         <v>GEP00007_01D2</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>179</v>
       </c>
@@ -6046,7 +6052,7 @@
         <v>GEP00007_01E2</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>179</v>
       </c>
@@ -6070,7 +6076,7 @@
         <v>GEP00007_01F2</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>179</v>
       </c>
@@ -6094,7 +6100,7 @@
         <v>GEP00007_01G2</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>179</v>
       </c>
@@ -6118,7 +6124,7 @@
         <v>GEP00007_01H2</v>
       </c>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>179</v>
       </c>
@@ -6142,7 +6148,7 @@
         <v>GEP00007_01A3</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>179</v>
       </c>
@@ -6166,7 +6172,7 @@
         <v>GEP00007_01B3</v>
       </c>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>179</v>
       </c>
@@ -6190,7 +6196,7 @@
         <v>GEP00007_01C3</v>
       </c>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>179</v>
       </c>
@@ -6214,7 +6220,7 @@
         <v>GEP00007_01D3</v>
       </c>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>179</v>
       </c>
@@ -6238,7 +6244,7 @@
         <v>GEP00007_01E3</v>
       </c>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>179</v>
       </c>
@@ -6262,7 +6268,7 @@
         <v>GEP00007_01F3</v>
       </c>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>179</v>
       </c>
@@ -6286,7 +6292,7 @@
         <v>GEP00007_01G3</v>
       </c>
     </row>
-    <row r="25" spans="1:7">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>179</v>
       </c>
@@ -6310,7 +6316,7 @@
         <v>GEP00007_01H3</v>
       </c>
     </row>
-    <row r="26" spans="1:7">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>179</v>
       </c>
@@ -6334,7 +6340,7 @@
         <v>GEP00007_01A4</v>
       </c>
     </row>
-    <row r="27" spans="1:7">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>179</v>
       </c>
@@ -6358,7 +6364,7 @@
         <v>GEP00007_01B4</v>
       </c>
     </row>
-    <row r="28" spans="1:7">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>179</v>
       </c>
@@ -6382,7 +6388,7 @@
         <v>GEP00007_01C4</v>
       </c>
     </row>
-    <row r="29" spans="1:7">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>179</v>
       </c>
@@ -6406,7 +6412,7 @@
         <v>GEP00007_01D4</v>
       </c>
     </row>
-    <row r="30" spans="1:7">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>179</v>
       </c>
@@ -6430,7 +6436,7 @@
         <v>GEP00007_01E4</v>
       </c>
     </row>
-    <row r="31" spans="1:7">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>179</v>
       </c>
@@ -6454,7 +6460,7 @@
         <v>GEP00007_01F4</v>
       </c>
     </row>
-    <row r="32" spans="1:7">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>179</v>
       </c>
@@ -6478,7 +6484,7 @@
         <v>GEP00007_01G4</v>
       </c>
     </row>
-    <row r="33" spans="1:7">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>179</v>
       </c>
@@ -6502,7 +6508,7 @@
         <v>GEP00007_01H4</v>
       </c>
     </row>
-    <row r="34" spans="1:7">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>179</v>
       </c>
@@ -6526,7 +6532,7 @@
         <v>GEP00007_01A5</v>
       </c>
     </row>
-    <row r="35" spans="1:7">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>179</v>
       </c>
@@ -6550,7 +6556,7 @@
         <v>GEP00007_01B5</v>
       </c>
     </row>
-    <row r="36" spans="1:7">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>179</v>
       </c>
@@ -6574,7 +6580,7 @@
         <v>GEP00007_01C5</v>
       </c>
     </row>
-    <row r="37" spans="1:7">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>179</v>
       </c>
@@ -6598,7 +6604,7 @@
         <v>GEP00007_01D5</v>
       </c>
     </row>
-    <row r="38" spans="1:7">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>179</v>
       </c>
@@ -6622,7 +6628,7 @@
         <v>GEP00007_01E5</v>
       </c>
     </row>
-    <row r="39" spans="1:7">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>179</v>
       </c>
@@ -6646,7 +6652,7 @@
         <v>GEP00007_01F5</v>
       </c>
     </row>
-    <row r="40" spans="1:7">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>179</v>
       </c>
@@ -6670,7 +6676,7 @@
         <v>GEP00007_01G5</v>
       </c>
     </row>
-    <row r="41" spans="1:7">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>179</v>
       </c>
@@ -6694,7 +6700,7 @@
         <v>GEP00007_01H5</v>
       </c>
     </row>
-    <row r="42" spans="1:7">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>179</v>
       </c>
@@ -6718,7 +6724,7 @@
         <v>GEP00007_01A6</v>
       </c>
     </row>
-    <row r="43" spans="1:7">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>179</v>
       </c>
@@ -6742,7 +6748,7 @@
         <v>GEP00007_01B6</v>
       </c>
     </row>
-    <row r="44" spans="1:7">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>179</v>
       </c>
@@ -6766,7 +6772,7 @@
         <v>GEP00007_01C6</v>
       </c>
     </row>
-    <row r="45" spans="1:7">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>179</v>
       </c>
@@ -6790,7 +6796,7 @@
         <v>GEP00007_01D6</v>
       </c>
     </row>
-    <row r="46" spans="1:7">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>179</v>
       </c>
@@ -6814,7 +6820,7 @@
         <v>GEP00007_01E6</v>
       </c>
     </row>
-    <row r="47" spans="1:7">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>179</v>
       </c>
@@ -6838,7 +6844,7 @@
         <v>GEP00007_01F6</v>
       </c>
     </row>
-    <row r="48" spans="1:7">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>179</v>
       </c>
@@ -6862,7 +6868,7 @@
         <v>GEP00007_01G6</v>
       </c>
     </row>
-    <row r="49" spans="1:7">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>179</v>
       </c>
@@ -6886,7 +6892,7 @@
         <v>GEP00007_01H6</v>
       </c>
     </row>
-    <row r="50" spans="1:7">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>179</v>
       </c>
@@ -6910,7 +6916,7 @@
         <v>GEP00007_01A7</v>
       </c>
     </row>
-    <row r="51" spans="1:7">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>179</v>
       </c>
@@ -6934,7 +6940,7 @@
         <v>GEP00007_01B7</v>
       </c>
     </row>
-    <row r="52" spans="1:7">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>179</v>
       </c>
@@ -6958,7 +6964,7 @@
         <v>GEP00007_01C7</v>
       </c>
     </row>
-    <row r="53" spans="1:7">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>179</v>
       </c>
@@ -6982,7 +6988,7 @@
         <v>GEP00007_01D7</v>
       </c>
     </row>
-    <row r="54" spans="1:7">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>179</v>
       </c>
@@ -7006,7 +7012,7 @@
         <v>GEP00007_01E7</v>
       </c>
     </row>
-    <row r="55" spans="1:7">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>179</v>
       </c>
@@ -7030,7 +7036,7 @@
         <v>GEP00007_01F7</v>
       </c>
     </row>
-    <row r="56" spans="1:7">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>179</v>
       </c>
@@ -7054,7 +7060,7 @@
         <v>GEP00007_01G7</v>
       </c>
     </row>
-    <row r="57" spans="1:7">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>179</v>
       </c>
@@ -7078,7 +7084,7 @@
         <v>GEP00007_01H7</v>
       </c>
     </row>
-    <row r="58" spans="1:7">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>179</v>
       </c>
@@ -7102,7 +7108,7 @@
         <v>GEP00007_01A8</v>
       </c>
     </row>
-    <row r="59" spans="1:7">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>179</v>
       </c>
@@ -7126,7 +7132,7 @@
         <v>GEP00007_01B8</v>
       </c>
     </row>
-    <row r="60" spans="1:7">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>179</v>
       </c>
@@ -7150,7 +7156,7 @@
         <v>GEP00007_01C8</v>
       </c>
     </row>
-    <row r="61" spans="1:7">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>179</v>
       </c>
@@ -7174,7 +7180,7 @@
         <v>GEP00007_01D8</v>
       </c>
     </row>
-    <row r="62" spans="1:7">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>179</v>
       </c>
@@ -7198,7 +7204,7 @@
         <v>GEP00007_01E8</v>
       </c>
     </row>
-    <row r="63" spans="1:7">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>179</v>
       </c>
@@ -7222,7 +7228,7 @@
         <v>GEP00007_01F8</v>
       </c>
     </row>
-    <row r="64" spans="1:7">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>179</v>
       </c>
@@ -7246,7 +7252,7 @@
         <v>GEP00007_01G8</v>
       </c>
     </row>
-    <row r="65" spans="1:7">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>179</v>
       </c>
@@ -7270,7 +7276,7 @@
         <v>GEP00007_01H8</v>
       </c>
     </row>
-    <row r="66" spans="1:7">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>179</v>
       </c>
@@ -7294,7 +7300,7 @@
         <v>GEP00007_01A9</v>
       </c>
     </row>
-    <row r="67" spans="1:7">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>179</v>
       </c>
@@ -7318,7 +7324,7 @@
         <v>GEP00007_01B9</v>
       </c>
     </row>
-    <row r="68" spans="1:7">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>179</v>
       </c>
@@ -7342,7 +7348,7 @@
         <v>GEP00007_01C9</v>
       </c>
     </row>
-    <row r="69" spans="1:7">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>179</v>
       </c>
@@ -7366,7 +7372,7 @@
         <v>GEP00007_01D9</v>
       </c>
     </row>
-    <row r="70" spans="1:7">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>179</v>
       </c>
@@ -7390,7 +7396,7 @@
         <v>GEP00007_01E9</v>
       </c>
     </row>
-    <row r="71" spans="1:7">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>179</v>
       </c>
@@ -7414,7 +7420,7 @@
         <v>GEP00007_01F9</v>
       </c>
     </row>
-    <row r="72" spans="1:7">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>179</v>
       </c>
@@ -7438,7 +7444,7 @@
         <v>GEP00007_01G9</v>
       </c>
     </row>
-    <row r="73" spans="1:7">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>179</v>
       </c>
@@ -7462,7 +7468,7 @@
         <v>GEP00007_01H9</v>
       </c>
     </row>
-    <row r="74" spans="1:7">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>179</v>
       </c>
@@ -7486,7 +7492,7 @@
         <v>GEP00007_01A10</v>
       </c>
     </row>
-    <row r="75" spans="1:7">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>179</v>
       </c>
@@ -7510,7 +7516,7 @@
         <v>GEP00007_01B10</v>
       </c>
     </row>
-    <row r="76" spans="1:7">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>179</v>
       </c>
@@ -7534,7 +7540,7 @@
         <v>GEP00007_01C10</v>
       </c>
     </row>
-    <row r="77" spans="1:7">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>179</v>
       </c>
@@ -7558,7 +7564,7 @@
         <v>GEP00007_01D10</v>
       </c>
     </row>
-    <row r="78" spans="1:7">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>179</v>
       </c>
@@ -7582,7 +7588,7 @@
         <v>GEP00007_01E10</v>
       </c>
     </row>
-    <row r="79" spans="1:7">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>179</v>
       </c>
@@ -7606,7 +7612,7 @@
         <v>GEP00007_01F10</v>
       </c>
     </row>
-    <row r="80" spans="1:7">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>179</v>
       </c>
@@ -7630,7 +7636,7 @@
         <v>GEP00007_01G10</v>
       </c>
     </row>
-    <row r="81" spans="1:7">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>179</v>
       </c>
@@ -7654,7 +7660,7 @@
         <v>GEP00007_01H10</v>
       </c>
     </row>
-    <row r="82" spans="1:7">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>179</v>
       </c>
@@ -7678,7 +7684,7 @@
         <v>GEP00007_01A11</v>
       </c>
     </row>
-    <row r="83" spans="1:7">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>179</v>
       </c>
@@ -7702,7 +7708,7 @@
         <v>GEP00007_01B11</v>
       </c>
     </row>
-    <row r="84" spans="1:7">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>179</v>
       </c>
@@ -7726,7 +7732,7 @@
         <v>GEP00007_01C11</v>
       </c>
     </row>
-    <row r="85" spans="1:7">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>179</v>
       </c>
@@ -7750,7 +7756,7 @@
         <v>GEP00007_01D11</v>
       </c>
     </row>
-    <row r="86" spans="1:7">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>179</v>
       </c>
@@ -7774,7 +7780,7 @@
         <v>GEP00007_01E11</v>
       </c>
     </row>
-    <row r="87" spans="1:7">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>179</v>
       </c>
@@ -7798,7 +7804,7 @@
         <v>GEP00007_01F11</v>
       </c>
     </row>
-    <row r="88" spans="1:7">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>179</v>
       </c>
@@ -7822,7 +7828,7 @@
         <v>GEP00007_01G11</v>
       </c>
     </row>
-    <row r="89" spans="1:7">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>179</v>
       </c>
@@ -7846,7 +7852,7 @@
         <v>GEP00007_01H11</v>
       </c>
     </row>
-    <row r="90" spans="1:7">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>179</v>
       </c>
@@ -7870,7 +7876,7 @@
         <v>GEP00007_01A12</v>
       </c>
     </row>
-    <row r="91" spans="1:7">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>179</v>
       </c>
@@ -7894,7 +7900,7 @@
         <v>GEP00007_01B12</v>
       </c>
     </row>
-    <row r="92" spans="1:7">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>179</v>
       </c>
@@ -7918,7 +7924,7 @@
         <v>GEP00007_01C12</v>
       </c>
     </row>
-    <row r="93" spans="1:7">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>179</v>
       </c>
@@ -7942,7 +7948,7 @@
         <v>GEP00007_01D12</v>
       </c>
     </row>
-    <row r="94" spans="1:7">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>179</v>
       </c>
@@ -7966,7 +7972,7 @@
         <v>GEP00007_01E12</v>
       </c>
     </row>
-    <row r="95" spans="1:7">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>179</v>
       </c>
@@ -7990,7 +7996,7 @@
         <v>GEP00007_01F12</v>
       </c>
     </row>
-    <row r="96" spans="1:7">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>179</v>
       </c>
@@ -8014,7 +8020,7 @@
         <v>GEP00007_01G12</v>
       </c>
     </row>
-    <row r="97" spans="1:7">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>179</v>
       </c>
@@ -8038,7 +8044,7 @@
         <v>GEP00007_01H12</v>
       </c>
     </row>
-    <row r="98" spans="1:7">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>180</v>
       </c>
@@ -8062,7 +8068,7 @@
         <v>GEP00007_02A1</v>
       </c>
     </row>
-    <row r="99" spans="1:7">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>180</v>
       </c>
@@ -8086,7 +8092,7 @@
         <v>GEP00007_02B1</v>
       </c>
     </row>
-    <row r="100" spans="1:7">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>180</v>
       </c>
@@ -8110,7 +8116,7 @@
         <v>GEP00007_02C1</v>
       </c>
     </row>
-    <row r="101" spans="1:7">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>180</v>
       </c>
@@ -8134,7 +8140,7 @@
         <v>GEP00007_02D1</v>
       </c>
     </row>
-    <row r="102" spans="1:7">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>180</v>
       </c>
@@ -8158,7 +8164,7 @@
         <v>GEP00007_02E1</v>
       </c>
     </row>
-    <row r="103" spans="1:7">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>180</v>
       </c>
@@ -8182,7 +8188,7 @@
         <v>GEP00007_02F1</v>
       </c>
     </row>
-    <row r="104" spans="1:7">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>180</v>
       </c>
@@ -8206,7 +8212,7 @@
         <v>GEP00007_02G1</v>
       </c>
     </row>
-    <row r="105" spans="1:7">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>180</v>
       </c>
@@ -8230,7 +8236,7 @@
         <v>GEP00007_02H1</v>
       </c>
     </row>
-    <row r="106" spans="1:7">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>180</v>
       </c>
@@ -8254,7 +8260,7 @@
         <v>GEP00007_02A2</v>
       </c>
     </row>
-    <row r="107" spans="1:7">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>180</v>
       </c>
@@ -8278,7 +8284,7 @@
         <v>GEP00007_02B2</v>
       </c>
     </row>
-    <row r="108" spans="1:7">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>180</v>
       </c>
@@ -8302,7 +8308,7 @@
         <v>GEP00007_02C2</v>
       </c>
     </row>
-    <row r="109" spans="1:7">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>180</v>
       </c>
@@ -8326,7 +8332,7 @@
         <v>GEP00007_02D2</v>
       </c>
     </row>
-    <row r="110" spans="1:7">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>180</v>
       </c>
@@ -8350,7 +8356,7 @@
         <v>GEP00007_02E2</v>
       </c>
     </row>
-    <row r="111" spans="1:7">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>180</v>
       </c>
@@ -8374,7 +8380,7 @@
         <v>GEP00007_02F2</v>
       </c>
     </row>
-    <row r="112" spans="1:7">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>180</v>
       </c>
@@ -8398,7 +8404,7 @@
         <v>GEP00007_02G2</v>
       </c>
     </row>
-    <row r="113" spans="1:7">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>180</v>
       </c>
@@ -8422,7 +8428,7 @@
         <v>GEP00007_02H2</v>
       </c>
     </row>
-    <row r="114" spans="1:7">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>180</v>
       </c>
@@ -8446,7 +8452,7 @@
         <v>GEP00007_02A3</v>
       </c>
     </row>
-    <row r="115" spans="1:7">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>180</v>
       </c>
@@ -8470,7 +8476,7 @@
         <v>GEP00007_02B3</v>
       </c>
     </row>
-    <row r="116" spans="1:7">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>180</v>
       </c>
@@ -8494,7 +8500,7 @@
         <v>GEP00007_02C3</v>
       </c>
     </row>
-    <row r="117" spans="1:7">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>180</v>
       </c>
@@ -8518,7 +8524,7 @@
         <v>GEP00007_02D3</v>
       </c>
     </row>
-    <row r="118" spans="1:7">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>180</v>
       </c>
@@ -8542,7 +8548,7 @@
         <v>GEP00007_02E3</v>
       </c>
     </row>
-    <row r="119" spans="1:7">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>180</v>
       </c>
@@ -8566,7 +8572,7 @@
         <v>GEP00007_02F3</v>
       </c>
     </row>
-    <row r="120" spans="1:7">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>180</v>
       </c>
@@ -8590,7 +8596,7 @@
         <v>GEP00007_02G3</v>
       </c>
     </row>
-    <row r="121" spans="1:7">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>180</v>
       </c>
